--- a/01_Dimension 1-10/02_Caliper/02_Caliper_ External.xlsx
+++ b/01_Dimension 1-10/02_Caliper/02_Caliper_ External.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\02_Caliper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\02_Caliper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="30780" windowHeight="19860" tabRatio="915" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="30780" windowHeight="19860" tabRatio="915"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="21" r:id="rId1"/>
@@ -1482,7 +1482,7 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="433">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2226,79 +2226,70 @@
     <xf numFmtId="170" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="64" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="64" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="64" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2307,7 +2298,91 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="61" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="61" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="61" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2330,6 +2405,12 @@
     </xf>
     <xf numFmtId="176" fontId="54" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2364,137 +2445,44 @@
     <xf numFmtId="0" fontId="54" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="61" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="2" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="64" fillId="0" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="54" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2571,15 +2559,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2587,51 +2566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2685,6 +2619,15 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2703,16 +2646,73 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,22 +2733,10 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3441,8 +3429,8 @@
   </sheetPr>
   <dimension ref="A1:IM206"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37:X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3459,31 +3447,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:247" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="322" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
+      <c r="J1" s="322"/>
+      <c r="K1" s="322"/>
       <c r="L1" s="133" t="s">
         <v>51</v>
       </c>
       <c r="N1" s="133"/>
       <c r="O1" s="133"/>
-      <c r="P1" s="340" t="s">
+      <c r="P1" s="252" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="340"/>
-      <c r="R1" s="340"/>
-      <c r="S1" s="340"/>
-      <c r="T1" s="340"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
       <c r="U1" s="134"/>
       <c r="V1" s="134"/>
       <c r="W1" s="134"/>
@@ -3505,57 +3493,57 @@
       <c r="IK1"/>
     </row>
     <row r="2" spans="1:247" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="295"/>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
+      <c r="A2" s="322"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="322"/>
       <c r="L2" s="134" t="s">
         <v>54</v>
       </c>
       <c r="N2" s="133"/>
       <c r="O2" s="134"/>
-      <c r="P2" s="341">
+      <c r="P2" s="253">
         <v>42716</v>
       </c>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="341"/>
-      <c r="S2" s="341"/>
-      <c r="T2" s="341"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
       <c r="U2" s="134" t="s">
         <v>55</v>
       </c>
       <c r="W2" s="133"/>
       <c r="X2" s="135"/>
-      <c r="Y2" s="286">
+      <c r="Y2" s="311">
         <v>42716</v>
       </c>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="286"/>
-      <c r="AB2" s="286"/>
-      <c r="AC2" s="286"/>
+      <c r="Z2" s="311"/>
+      <c r="AA2" s="311"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="311"/>
       <c r="IK2"/>
     </row>
     <row r="3" spans="1:247" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="323" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="296"/>
-      <c r="K3" s="296"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
       <c r="L3" s="133" t="s">
         <v>57</v>
       </c>
@@ -3582,19 +3570,19 @@
       <c r="AC3" s="133"/>
     </row>
     <row r="4" spans="1:247" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="324" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="324"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
       <c r="L4" s="133" t="s">
         <v>49</v>
       </c>
@@ -3624,29 +3612,29 @@
       <c r="B5" s="139"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139"/>
-      <c r="E5" s="252" t="s">
+      <c r="E5" s="331" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="252"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
-      <c r="T5" s="252"/>
-      <c r="U5" s="252"/>
-      <c r="V5" s="252"/>
-      <c r="W5" s="252"/>
-      <c r="X5" s="252"/>
-      <c r="Y5" s="252"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="331"/>
       <c r="Z5" s="139"/>
       <c r="AA5" s="139"/>
       <c r="AB5" s="139"/>
@@ -3875,31 +3863,31 @@
       <c r="C6" s="139"/>
       <c r="D6" s="139"/>
       <c r="E6" s="139"/>
-      <c r="F6" s="253" t="s">
+      <c r="F6" s="257" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="253"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
       <c r="M6" s="138" t="s">
         <v>63</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="139"/>
-      <c r="Q6" s="253" t="s">
+      <c r="Q6" s="257" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
-      <c r="U6" s="253"/>
-      <c r="V6" s="253"/>
-      <c r="W6" s="253"/>
-      <c r="X6" s="253"/>
-      <c r="Y6" s="253"/>
+      <c r="R6" s="257"/>
+      <c r="S6" s="257"/>
+      <c r="T6" s="257"/>
+      <c r="U6" s="257"/>
+      <c r="V6" s="257"/>
+      <c r="W6" s="257"/>
+      <c r="X6" s="257"/>
+      <c r="Y6" s="257"/>
       <c r="Z6" s="139"/>
       <c r="AA6" s="139"/>
       <c r="AB6" s="139"/>
@@ -4128,39 +4116,39 @@
         <v>1</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="268">
+      <c r="C7" s="327">
         <v>123</v>
       </c>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="257" t="s">
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="333" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="257"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="259">
+      <c r="J7" s="333"/>
+      <c r="K7" s="333"/>
+      <c r="L7" s="335">
         <v>456</v>
       </c>
-      <c r="M7" s="259"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="259"/>
-      <c r="S7" s="258" t="s">
+      <c r="M7" s="335"/>
+      <c r="N7" s="335"/>
+      <c r="O7" s="335"/>
+      <c r="P7" s="335"/>
+      <c r="Q7" s="335"/>
+      <c r="R7" s="335"/>
+      <c r="S7" s="334" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="258"/>
-      <c r="U7" s="253">
+      <c r="T7" s="334"/>
+      <c r="U7" s="257">
         <v>789</v>
       </c>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
+      <c r="V7" s="257"/>
+      <c r="W7" s="257"/>
+      <c r="X7" s="257"/>
+      <c r="Y7" s="257"/>
       <c r="Z7" s="139"/>
       <c r="AA7" s="139"/>
       <c r="AB7" s="139"/>
@@ -4388,17 +4376,17 @@
         <v>65</v>
       </c>
       <c r="B8" s="140"/>
-      <c r="C8" s="273">
+      <c r="C8" s="256">
         <v>0</v>
       </c>
-      <c r="D8" s="273"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="273">
+      <c r="F8" s="256">
         <v>150</v>
       </c>
-      <c r="G8" s="273"/>
+      <c r="G8" s="256"/>
       <c r="H8" s="138" t="s">
         <v>19</v>
       </c>
@@ -4409,10 +4397,10 @@
       <c r="M8" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="273">
+      <c r="N8" s="256">
         <v>0.01</v>
       </c>
-      <c r="O8" s="273"/>
+      <c r="O8" s="256"/>
       <c r="P8" s="161" t="s">
         <v>19</v>
       </c>
@@ -4421,11 +4409,11 @@
         <v>11</v>
       </c>
       <c r="T8" s="1"/>
-      <c r="V8" s="253">
+      <c r="V8" s="257">
         <f>N8/2</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="W8" s="253"/>
+      <c r="W8" s="257"/>
       <c r="X8" s="161" t="s">
         <v>19</v>
       </c>
@@ -4672,17 +4660,17 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="141"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
+      <c r="O9" s="337"/>
+      <c r="P9" s="337"/>
+      <c r="Q9" s="337"/>
+      <c r="R9" s="337"/>
+      <c r="S9" s="337"/>
+      <c r="T9" s="337"/>
+      <c r="U9" s="337"/>
+      <c r="V9" s="337"/>
+      <c r="W9" s="337"/>
+      <c r="X9" s="337"/>
+      <c r="Y9" s="337"/>
       <c r="Z9" s="139"/>
       <c r="AA9" s="139"/>
       <c r="AB9" s="139"/>
@@ -5163,28 +5151,28 @@
       <c r="C11" s="141"/>
       <c r="D11" s="141"/>
       <c r="E11" s="141"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="332"/>
+      <c r="I11" s="332"/>
+      <c r="J11" s="332"/>
+      <c r="K11" s="332"/>
+      <c r="L11" s="332"/>
+      <c r="M11" s="332"/>
       <c r="N11" s="138"/>
       <c r="O11" s="147" t="s">
         <v>71</v>
       </c>
       <c r="P11" s="147"/>
-      <c r="Q11" s="252"/>
-      <c r="R11" s="252"/>
-      <c r="S11" s="252"/>
-      <c r="T11" s="252"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="252"/>
-      <c r="X11" s="252"/>
-      <c r="Y11" s="252"/>
+      <c r="Q11" s="331"/>
+      <c r="R11" s="331"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="331"/>
+      <c r="U11" s="331"/>
+      <c r="V11" s="331"/>
+      <c r="W11" s="331"/>
+      <c r="X11" s="331"/>
+      <c r="Y11" s="331"/>
       <c r="Z11" s="140"/>
       <c r="AA11" s="140"/>
       <c r="AB11" s="132"/>
@@ -5413,28 +5401,28 @@
       <c r="C12" s="141"/>
       <c r="D12" s="141"/>
       <c r="E12" s="141"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="260"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="260"/>
-      <c r="L12" s="260"/>
-      <c r="M12" s="260"/>
+      <c r="F12" s="336"/>
+      <c r="G12" s="336"/>
+      <c r="H12" s="336"/>
+      <c r="I12" s="336"/>
+      <c r="J12" s="336"/>
+      <c r="K12" s="336"/>
+      <c r="L12" s="336"/>
+      <c r="M12" s="336"/>
       <c r="N12" s="138"/>
       <c r="O12" s="147" t="s">
         <v>71</v>
       </c>
       <c r="P12" s="147"/>
-      <c r="Q12" s="253"/>
-      <c r="R12" s="253"/>
-      <c r="S12" s="253"/>
-      <c r="T12" s="253"/>
-      <c r="U12" s="253"/>
-      <c r="V12" s="253"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="253"/>
+      <c r="Q12" s="257"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="257"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="257"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="257"/>
+      <c r="X12" s="257"/>
+      <c r="Y12" s="257"/>
       <c r="Z12" s="140"/>
       <c r="AA12" s="140"/>
       <c r="AB12" s="132"/>
@@ -6166,11 +6154,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="120"/>
       <c r="H15" s="120"/>
-      <c r="I15" s="263"/>
-      <c r="J15" s="263"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="287"/>
-      <c r="M15" s="287"/>
+      <c r="L15" s="314"/>
+      <c r="M15" s="314"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -6195,25 +6183,25 @@
     <row r="16" spans="1:247" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="310" t="s">
+      <c r="C16" s="267" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="311"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="264" t="s">
+      <c r="D16" s="268"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="265"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="305" t="s">
+      <c r="G16" s="326"/>
+      <c r="H16" s="326"/>
+      <c r="I16" s="326"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="306"/>
-      <c r="N16" s="306"/>
-      <c r="O16" s="307"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="260"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6232,27 +6220,27 @@
     <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="313" t="s">
+      <c r="C17" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="314"/>
-      <c r="E17" s="315"/>
-      <c r="F17" s="264" t="s">
+      <c r="D17" s="271"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="271"/>
-      <c r="H17" s="264" t="s">
+      <c r="G17" s="328"/>
+      <c r="H17" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="271"/>
-      <c r="J17" s="264" t="s">
+      <c r="I17" s="328"/>
+      <c r="J17" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="272"/>
-      <c r="L17" s="308"/>
-      <c r="M17" s="304"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="309"/>
+      <c r="K17" s="329"/>
+      <c r="L17" s="261"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="262"/>
+      <c r="O17" s="263"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6271,31 +6259,31 @@
     <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="316">
+      <c r="C18" s="287">
         <f>F8*10%</f>
         <v>15</v>
       </c>
-      <c r="D18" s="317"/>
-      <c r="E18" s="318"/>
-      <c r="F18" s="254">
+      <c r="D18" s="288"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="302">
         <v>15</v>
       </c>
-      <c r="G18" s="255"/>
-      <c r="H18" s="254">
+      <c r="G18" s="330"/>
+      <c r="H18" s="302">
         <v>14.99</v>
       </c>
-      <c r="I18" s="255"/>
-      <c r="J18" s="254">
+      <c r="I18" s="330"/>
+      <c r="J18" s="302">
         <v>14.99</v>
       </c>
-      <c r="K18" s="255"/>
-      <c r="L18" s="288">
+      <c r="K18" s="330"/>
+      <c r="L18" s="315">
         <f>MAX(F18:J18)-MIN(F18:J18)</f>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="M18" s="289"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="290"/>
+      <c r="M18" s="316"/>
+      <c r="N18" s="316"/>
+      <c r="O18" s="317"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6314,31 +6302,31 @@
     <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="319">
+      <c r="C19" s="290">
         <f>F8/2</f>
         <v>75</v>
       </c>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="266">
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="280">
         <v>75</v>
       </c>
-      <c r="G19" s="279"/>
-      <c r="H19" s="266">
+      <c r="G19" s="285"/>
+      <c r="H19" s="280">
         <v>75</v>
       </c>
-      <c r="I19" s="279"/>
-      <c r="J19" s="266">
+      <c r="I19" s="285"/>
+      <c r="J19" s="280">
         <v>75</v>
       </c>
-      <c r="K19" s="279"/>
-      <c r="L19" s="291">
+      <c r="K19" s="285"/>
+      <c r="L19" s="318">
         <f>MAX(F19:J19)-MIN(F19:J19)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="291"/>
-      <c r="N19" s="291"/>
-      <c r="O19" s="291"/>
+      <c r="M19" s="318"/>
+      <c r="N19" s="318"/>
+      <c r="O19" s="318"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -6357,31 +6345,31 @@
     <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="320">
+      <c r="C20" s="291">
         <f>F8</f>
         <v>150</v>
       </c>
-      <c r="D20" s="321"/>
-      <c r="E20" s="322"/>
-      <c r="F20" s="269">
+      <c r="D20" s="292"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="312">
         <v>150</v>
       </c>
-      <c r="G20" s="270"/>
-      <c r="H20" s="269">
+      <c r="G20" s="313"/>
+      <c r="H20" s="312">
         <v>150.01</v>
       </c>
-      <c r="I20" s="270"/>
-      <c r="J20" s="269">
+      <c r="I20" s="313"/>
+      <c r="J20" s="312">
         <v>150.01</v>
       </c>
-      <c r="K20" s="270"/>
-      <c r="L20" s="292">
+      <c r="K20" s="313"/>
+      <c r="L20" s="319">
         <f>MAX(F20:J20)-MIN(F20:J20)</f>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="M20" s="293"/>
-      <c r="N20" s="293"/>
-      <c r="O20" s="294"/>
+      <c r="M20" s="320"/>
+      <c r="N20" s="320"/>
+      <c r="O20" s="321"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -6400,24 +6388,24 @@
     <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="323" t="s">
+      <c r="C21" s="294" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="323"/>
-      <c r="E21" s="323"/>
-      <c r="F21" s="323"/>
-      <c r="G21" s="323"/>
-      <c r="H21" s="323"/>
-      <c r="I21" s="323"/>
-      <c r="J21" s="323"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="283">
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="295"/>
+      <c r="L21" s="308">
         <f>MAX(L18:L20)</f>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="M21" s="284"/>
-      <c r="N21" s="284"/>
-      <c r="O21" s="285"/>
+      <c r="M21" s="309"/>
+      <c r="N21" s="309"/>
+      <c r="O21" s="310"/>
       <c r="P21" s="119"/>
       <c r="Q21" s="125"/>
       <c r="R21" s="48"/>
@@ -6448,10 +6436,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="287"/>
-      <c r="R22" s="287"/>
-      <c r="S22" s="304"/>
-      <c r="T22" s="304"/>
+      <c r="Q22" s="314"/>
+      <c r="R22" s="314"/>
+      <c r="S22" s="262"/>
+      <c r="T22" s="262"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -6465,1040 +6453,1040 @@
     <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="310" t="s">
+      <c r="C23" s="267" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="311"/>
-      <c r="E23" s="312"/>
-      <c r="F23" s="264" t="s">
+      <c r="D23" s="268"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="277"/>
-      <c r="H23" s="277"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="277"/>
-      <c r="K23" s="277"/>
-      <c r="L23" s="277"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="277"/>
-      <c r="O23" s="277"/>
-      <c r="P23" s="277"/>
-      <c r="Q23" s="277"/>
-      <c r="R23" s="277"/>
-      <c r="S23" s="277"/>
-      <c r="T23" s="278"/>
-      <c r="U23" s="305" t="s">
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="274"/>
+      <c r="L23" s="274"/>
+      <c r="M23" s="274"/>
+      <c r="N23" s="274"/>
+      <c r="O23" s="274"/>
+      <c r="P23" s="274"/>
+      <c r="Q23" s="274"/>
+      <c r="R23" s="274"/>
+      <c r="S23" s="274"/>
+      <c r="T23" s="275"/>
+      <c r="U23" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="V23" s="306"/>
-      <c r="W23" s="306"/>
-      <c r="X23" s="307"/>
-      <c r="Y23" s="339" t="s">
+      <c r="V23" s="259"/>
+      <c r="W23" s="259"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" s="339"/>
-      <c r="AA23" s="339"/>
+      <c r="Z23" s="255"/>
+      <c r="AA23" s="255"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="313" t="s">
+      <c r="C24" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="314"/>
-      <c r="E24" s="315"/>
-      <c r="F24" s="264" t="s">
+      <c r="D24" s="271"/>
+      <c r="E24" s="272"/>
+      <c r="F24" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="277"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="264" t="s">
+      <c r="G24" s="274"/>
+      <c r="H24" s="275"/>
+      <c r="I24" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="277"/>
-      <c r="K24" s="278"/>
-      <c r="L24" s="264" t="s">
+      <c r="J24" s="274"/>
+      <c r="K24" s="275"/>
+      <c r="L24" s="273" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="264" t="s">
+      <c r="M24" s="274"/>
+      <c r="N24" s="275"/>
+      <c r="O24" s="273" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="277"/>
-      <c r="Q24" s="278"/>
-      <c r="R24" s="264" t="s">
+      <c r="P24" s="274"/>
+      <c r="Q24" s="275"/>
+      <c r="R24" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="S24" s="277"/>
-      <c r="T24" s="278"/>
-      <c r="U24" s="308"/>
-      <c r="V24" s="304"/>
-      <c r="W24" s="304"/>
-      <c r="X24" s="309"/>
-      <c r="Y24" s="339"/>
-      <c r="Z24" s="339"/>
-      <c r="AA24" s="339"/>
+      <c r="S24" s="274"/>
+      <c r="T24" s="275"/>
+      <c r="U24" s="261"/>
+      <c r="V24" s="262"/>
+      <c r="W24" s="262"/>
+      <c r="X24" s="263"/>
+      <c r="Y24" s="255"/>
+      <c r="Z24" s="255"/>
+      <c r="AA24" s="255"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="329">
+      <c r="C25" s="296">
         <v>0</v>
       </c>
-      <c r="D25" s="330"/>
-      <c r="E25" s="331"/>
-      <c r="F25" s="254">
+      <c r="D25" s="297"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="302">
         <v>0</v>
       </c>
-      <c r="G25" s="275"/>
-      <c r="H25" s="276"/>
-      <c r="I25" s="254">
+      <c r="G25" s="303"/>
+      <c r="H25" s="304"/>
+      <c r="I25" s="302">
         <v>0</v>
       </c>
-      <c r="J25" s="275"/>
-      <c r="K25" s="276"/>
-      <c r="L25" s="254">
+      <c r="J25" s="303"/>
+      <c r="K25" s="304"/>
+      <c r="L25" s="302">
         <v>0</v>
       </c>
-      <c r="M25" s="275"/>
-      <c r="N25" s="276"/>
-      <c r="O25" s="254">
+      <c r="M25" s="303"/>
+      <c r="N25" s="304"/>
+      <c r="O25" s="302">
         <v>0</v>
       </c>
-      <c r="P25" s="275"/>
-      <c r="Q25" s="276"/>
-      <c r="R25" s="280">
+      <c r="P25" s="303"/>
+      <c r="Q25" s="304"/>
+      <c r="R25" s="305">
         <f t="shared" ref="R25:R44" si="0">AVERAGE(F25:P25)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="281"/>
-      <c r="T25" s="282"/>
-      <c r="U25" s="333">
-        <f>STDEV(F25:Q25)/SQRT(4)</f>
+      <c r="S25" s="306"/>
+      <c r="T25" s="307"/>
+      <c r="U25" s="264">
+        <f>_xlfn.STDEV.S(F25:Q25)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="334"/>
-      <c r="W25" s="334"/>
-      <c r="X25" s="335"/>
-      <c r="Y25" s="332">
+      <c r="V25" s="265"/>
+      <c r="W25" s="265"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="254">
         <f>R25-C25</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="332"/>
-      <c r="AA25" s="332"/>
+      <c r="Z25" s="254"/>
+      <c r="AA25" s="254"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="274">
+      <c r="C26" s="286">
         <v>1</v>
       </c>
-      <c r="D26" s="274"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="266">
+      <c r="D26" s="286"/>
+      <c r="E26" s="286"/>
+      <c r="F26" s="280">
         <v>1</v>
       </c>
-      <c r="G26" s="266"/>
-      <c r="H26" s="266"/>
-      <c r="I26" s="266">
+      <c r="G26" s="280"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280">
         <v>1</v>
       </c>
-      <c r="J26" s="266"/>
-      <c r="K26" s="266"/>
-      <c r="L26" s="266">
+      <c r="J26" s="280"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="280">
         <v>1</v>
       </c>
-      <c r="M26" s="266"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266">
+      <c r="M26" s="280"/>
+      <c r="N26" s="280"/>
+      <c r="O26" s="280">
         <v>1</v>
       </c>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="266"/>
-      <c r="R26" s="267">
+      <c r="P26" s="280"/>
+      <c r="Q26" s="280"/>
+      <c r="R26" s="279">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S26" s="267"/>
-      <c r="T26" s="267"/>
-      <c r="U26" s="325">
-        <f t="shared" ref="U26:U44" si="1">STDEV(F26:Q26)/SQRT(4)</f>
+      <c r="S26" s="279"/>
+      <c r="T26" s="279"/>
+      <c r="U26" s="264">
+        <f t="shared" ref="U26:U44" si="1">_xlfn.STDEV.S(F26:Q26)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="325"/>
-      <c r="W26" s="325"/>
-      <c r="X26" s="325"/>
-      <c r="Y26" s="332">
+      <c r="V26" s="265"/>
+      <c r="W26" s="265"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="254">
         <f t="shared" ref="Y26:Y42" si="2">R26-C26</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="332"/>
-      <c r="AA26" s="332"/>
+      <c r="Z26" s="254"/>
+      <c r="AA26" s="254"/>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="274">
+      <c r="C27" s="286">
         <v>1.5</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="266">
+      <c r="D27" s="286"/>
+      <c r="E27" s="286"/>
+      <c r="F27" s="280">
         <v>1.5</v>
       </c>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266">
+      <c r="G27" s="280"/>
+      <c r="H27" s="280"/>
+      <c r="I27" s="280">
         <v>1.5</v>
       </c>
-      <c r="J27" s="266"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="266">
+      <c r="J27" s="280"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280">
         <v>1.5</v>
       </c>
-      <c r="M27" s="266"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266">
+      <c r="M27" s="280"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="280">
         <v>1.5</v>
       </c>
-      <c r="P27" s="266"/>
-      <c r="Q27" s="266"/>
-      <c r="R27" s="267">
+      <c r="P27" s="280"/>
+      <c r="Q27" s="280"/>
+      <c r="R27" s="279">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="S27" s="267"/>
-      <c r="T27" s="267"/>
-      <c r="U27" s="325">
+      <c r="S27" s="279"/>
+      <c r="T27" s="279"/>
+      <c r="U27" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V27" s="325"/>
-      <c r="W27" s="325"/>
-      <c r="X27" s="325"/>
-      <c r="Y27" s="332">
+      <c r="V27" s="265"/>
+      <c r="W27" s="265"/>
+      <c r="X27" s="266"/>
+      <c r="Y27" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="332"/>
-      <c r="AA27" s="332"/>
+      <c r="Z27" s="254"/>
+      <c r="AA27" s="254"/>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="274">
+      <c r="C28" s="286">
         <v>5</v>
       </c>
-      <c r="D28" s="274"/>
-      <c r="E28" s="274"/>
-      <c r="F28" s="266">
+      <c r="D28" s="286"/>
+      <c r="E28" s="286"/>
+      <c r="F28" s="280">
         <v>5</v>
       </c>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="266">
+      <c r="G28" s="280"/>
+      <c r="H28" s="280"/>
+      <c r="I28" s="280">
         <v>5</v>
       </c>
-      <c r="J28" s="266"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="266">
+      <c r="J28" s="280"/>
+      <c r="K28" s="280"/>
+      <c r="L28" s="280">
         <v>5</v>
       </c>
-      <c r="M28" s="266"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266">
+      <c r="M28" s="280"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280">
         <v>5</v>
       </c>
-      <c r="P28" s="266"/>
-      <c r="Q28" s="266"/>
-      <c r="R28" s="267">
+      <c r="P28" s="280"/>
+      <c r="Q28" s="280"/>
+      <c r="R28" s="279">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S28" s="267"/>
-      <c r="T28" s="267"/>
-      <c r="U28" s="325">
+      <c r="S28" s="279"/>
+      <c r="T28" s="279"/>
+      <c r="U28" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V28" s="325"/>
-      <c r="W28" s="325"/>
-      <c r="X28" s="325"/>
-      <c r="Y28" s="332">
+      <c r="V28" s="265"/>
+      <c r="W28" s="265"/>
+      <c r="X28" s="266"/>
+      <c r="Y28" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="332"/>
-      <c r="AA28" s="332"/>
+      <c r="Z28" s="254"/>
+      <c r="AA28" s="254"/>
     </row>
     <row r="29" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="274">
+      <c r="C29" s="286">
         <v>10</v>
       </c>
-      <c r="D29" s="274"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="266">
+      <c r="D29" s="286"/>
+      <c r="E29" s="286"/>
+      <c r="F29" s="280">
         <v>10</v>
       </c>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266">
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280">
         <v>10</v>
       </c>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266">
+      <c r="J29" s="280"/>
+      <c r="K29" s="280"/>
+      <c r="L29" s="280">
         <v>10</v>
       </c>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266">
+      <c r="M29" s="280"/>
+      <c r="N29" s="280"/>
+      <c r="O29" s="280">
         <v>10</v>
       </c>
-      <c r="P29" s="266"/>
-      <c r="Q29" s="266"/>
-      <c r="R29" s="267">
+      <c r="P29" s="280"/>
+      <c r="Q29" s="280"/>
+      <c r="R29" s="279">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S29" s="267"/>
-      <c r="T29" s="267"/>
-      <c r="U29" s="325">
+      <c r="S29" s="279"/>
+      <c r="T29" s="279"/>
+      <c r="U29" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V29" s="325"/>
-      <c r="W29" s="325"/>
-      <c r="X29" s="325"/>
-      <c r="Y29" s="332">
+      <c r="V29" s="265"/>
+      <c r="W29" s="265"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="332"/>
-      <c r="AA29" s="332"/>
+      <c r="Z29" s="254"/>
+      <c r="AA29" s="254"/>
     </row>
     <row r="30" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="274">
+      <c r="C30" s="286">
         <v>20</v>
       </c>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="266">
+      <c r="D30" s="286"/>
+      <c r="E30" s="286"/>
+      <c r="F30" s="280">
         <v>20</v>
       </c>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266">
+      <c r="G30" s="280"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="280">
         <v>20</v>
       </c>
-      <c r="J30" s="266"/>
-      <c r="K30" s="266"/>
-      <c r="L30" s="266">
+      <c r="J30" s="280"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="280">
         <v>20</v>
       </c>
-      <c r="M30" s="266"/>
-      <c r="N30" s="266"/>
-      <c r="O30" s="266">
+      <c r="M30" s="280"/>
+      <c r="N30" s="280"/>
+      <c r="O30" s="280">
         <v>20</v>
       </c>
-      <c r="P30" s="266"/>
-      <c r="Q30" s="266"/>
-      <c r="R30" s="267">
+      <c r="P30" s="280"/>
+      <c r="Q30" s="280"/>
+      <c r="R30" s="279">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S30" s="267"/>
-      <c r="T30" s="267"/>
-      <c r="U30" s="325">
+      <c r="S30" s="279"/>
+      <c r="T30" s="279"/>
+      <c r="U30" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V30" s="325"/>
-      <c r="W30" s="325"/>
-      <c r="X30" s="325"/>
-      <c r="Y30" s="332">
+      <c r="V30" s="265"/>
+      <c r="W30" s="265"/>
+      <c r="X30" s="266"/>
+      <c r="Y30" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="332"/>
-      <c r="AA30" s="332"/>
+      <c r="Z30" s="254"/>
+      <c r="AA30" s="254"/>
     </row>
     <row r="31" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="274">
+      <c r="C31" s="286">
         <v>50</v>
       </c>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="266">
+      <c r="D31" s="286"/>
+      <c r="E31" s="286"/>
+      <c r="F31" s="280">
         <v>50</v>
       </c>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="266">
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280">
         <v>50</v>
       </c>
-      <c r="J31" s="266"/>
-      <c r="K31" s="266"/>
-      <c r="L31" s="266">
+      <c r="J31" s="280"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280">
         <v>50</v>
       </c>
-      <c r="M31" s="266"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266">
+      <c r="M31" s="280"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280">
         <v>50</v>
       </c>
-      <c r="P31" s="266"/>
-      <c r="Q31" s="266"/>
-      <c r="R31" s="267">
+      <c r="P31" s="280"/>
+      <c r="Q31" s="280"/>
+      <c r="R31" s="279">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="S31" s="267"/>
-      <c r="T31" s="267"/>
-      <c r="U31" s="325">
+      <c r="S31" s="279"/>
+      <c r="T31" s="279"/>
+      <c r="U31" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V31" s="325"/>
-      <c r="W31" s="325"/>
-      <c r="X31" s="325"/>
-      <c r="Y31" s="332">
+      <c r="V31" s="265"/>
+      <c r="W31" s="265"/>
+      <c r="X31" s="266"/>
+      <c r="Y31" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="332"/>
-      <c r="AA31" s="332"/>
+      <c r="Z31" s="254"/>
+      <c r="AA31" s="254"/>
     </row>
     <row r="32" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="274">
+      <c r="C32" s="286">
         <v>100</v>
       </c>
-      <c r="D32" s="274"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="266">
+      <c r="D32" s="286"/>
+      <c r="E32" s="286"/>
+      <c r="F32" s="280">
         <v>100</v>
       </c>
-      <c r="G32" s="266"/>
-      <c r="H32" s="266"/>
-      <c r="I32" s="266">
+      <c r="G32" s="280"/>
+      <c r="H32" s="280"/>
+      <c r="I32" s="280">
         <v>100</v>
       </c>
-      <c r="J32" s="266"/>
-      <c r="K32" s="266"/>
-      <c r="L32" s="266">
+      <c r="J32" s="280"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="280">
         <v>100</v>
       </c>
-      <c r="M32" s="266"/>
-      <c r="N32" s="266"/>
-      <c r="O32" s="266">
+      <c r="M32" s="280"/>
+      <c r="N32" s="280"/>
+      <c r="O32" s="280">
         <v>100</v>
       </c>
-      <c r="P32" s="266"/>
-      <c r="Q32" s="266"/>
-      <c r="R32" s="267">
+      <c r="P32" s="280"/>
+      <c r="Q32" s="280"/>
+      <c r="R32" s="279">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="S32" s="267"/>
-      <c r="T32" s="267"/>
-      <c r="U32" s="325">
+      <c r="S32" s="279"/>
+      <c r="T32" s="279"/>
+      <c r="U32" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V32" s="325"/>
-      <c r="W32" s="325"/>
-      <c r="X32" s="325"/>
-      <c r="Y32" s="332">
+      <c r="V32" s="265"/>
+      <c r="W32" s="265"/>
+      <c r="X32" s="266"/>
+      <c r="Y32" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="332"/>
-      <c r="AA32" s="332"/>
+      <c r="Z32" s="254"/>
+      <c r="AA32" s="254"/>
     </row>
     <row r="33" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="274">
+      <c r="C33" s="286">
         <v>150</v>
       </c>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="266">
+      <c r="D33" s="286"/>
+      <c r="E33" s="286"/>
+      <c r="F33" s="280">
         <v>150</v>
       </c>
-      <c r="G33" s="266"/>
-      <c r="H33" s="266"/>
-      <c r="I33" s="266">
+      <c r="G33" s="280"/>
+      <c r="H33" s="280"/>
+      <c r="I33" s="280">
         <v>150</v>
       </c>
-      <c r="J33" s="266"/>
-      <c r="K33" s="266"/>
-      <c r="L33" s="266">
+      <c r="J33" s="280"/>
+      <c r="K33" s="280"/>
+      <c r="L33" s="280">
         <v>150</v>
       </c>
-      <c r="M33" s="266"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="266">
+      <c r="M33" s="280"/>
+      <c r="N33" s="280"/>
+      <c r="O33" s="280">
         <v>150</v>
       </c>
-      <c r="P33" s="266"/>
-      <c r="Q33" s="266"/>
-      <c r="R33" s="267">
+      <c r="P33" s="280"/>
+      <c r="Q33" s="280"/>
+      <c r="R33" s="279">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="S33" s="267"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="325">
+      <c r="S33" s="279"/>
+      <c r="T33" s="279"/>
+      <c r="U33" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V33" s="325"/>
-      <c r="W33" s="325"/>
-      <c r="X33" s="325"/>
-      <c r="Y33" s="332">
+      <c r="V33" s="265"/>
+      <c r="W33" s="265"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="332"/>
-      <c r="AA33" s="332"/>
+      <c r="Z33" s="254"/>
+      <c r="AA33" s="254"/>
     </row>
     <row r="34" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="274">
+      <c r="C34" s="286">
         <v>200</v>
       </c>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="266">
+      <c r="D34" s="286"/>
+      <c r="E34" s="286"/>
+      <c r="F34" s="280">
         <v>200</v>
       </c>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="266">
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="280">
         <v>200</v>
       </c>
-      <c r="J34" s="266"/>
-      <c r="K34" s="266"/>
-      <c r="L34" s="266">
+      <c r="J34" s="280"/>
+      <c r="K34" s="280"/>
+      <c r="L34" s="280">
         <v>200</v>
       </c>
-      <c r="M34" s="266"/>
-      <c r="N34" s="266"/>
-      <c r="O34" s="266">
+      <c r="M34" s="280"/>
+      <c r="N34" s="280"/>
+      <c r="O34" s="280">
         <v>200</v>
       </c>
-      <c r="P34" s="266"/>
-      <c r="Q34" s="266"/>
-      <c r="R34" s="267">
+      <c r="P34" s="280"/>
+      <c r="Q34" s="280"/>
+      <c r="R34" s="279">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="S34" s="267"/>
-      <c r="T34" s="267"/>
-      <c r="U34" s="325">
+      <c r="S34" s="279"/>
+      <c r="T34" s="279"/>
+      <c r="U34" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V34" s="325"/>
-      <c r="W34" s="325"/>
-      <c r="X34" s="325"/>
-      <c r="Y34" s="332">
+      <c r="V34" s="265"/>
+      <c r="W34" s="265"/>
+      <c r="X34" s="266"/>
+      <c r="Y34" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="332"/>
-      <c r="AA34" s="332"/>
+      <c r="Z34" s="254"/>
+      <c r="AA34" s="254"/>
     </row>
     <row r="35" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="274">
+      <c r="C35" s="286">
         <v>250</v>
       </c>
-      <c r="D35" s="274"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="266">
+      <c r="D35" s="286"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="280">
         <v>250</v>
       </c>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266">
+      <c r="G35" s="280"/>
+      <c r="H35" s="280"/>
+      <c r="I35" s="280">
         <v>250</v>
       </c>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
-      <c r="L35" s="266">
+      <c r="J35" s="280"/>
+      <c r="K35" s="280"/>
+      <c r="L35" s="280">
         <v>250</v>
       </c>
-      <c r="M35" s="266"/>
-      <c r="N35" s="266"/>
-      <c r="O35" s="266">
+      <c r="M35" s="280"/>
+      <c r="N35" s="280"/>
+      <c r="O35" s="280">
         <v>250</v>
       </c>
-      <c r="P35" s="266"/>
-      <c r="Q35" s="266"/>
-      <c r="R35" s="267">
+      <c r="P35" s="280"/>
+      <c r="Q35" s="280"/>
+      <c r="R35" s="279">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="S35" s="267"/>
-      <c r="T35" s="267"/>
-      <c r="U35" s="325">
+      <c r="S35" s="279"/>
+      <c r="T35" s="279"/>
+      <c r="U35" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V35" s="325"/>
-      <c r="W35" s="325"/>
-      <c r="X35" s="325"/>
-      <c r="Y35" s="332">
+      <c r="V35" s="265"/>
+      <c r="W35" s="265"/>
+      <c r="X35" s="266"/>
+      <c r="Y35" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="332"/>
-      <c r="AA35" s="332"/>
+      <c r="Z35" s="254"/>
+      <c r="AA35" s="254"/>
     </row>
     <row r="36" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="274">
+      <c r="C36" s="286">
         <v>300</v>
       </c>
-      <c r="D36" s="274"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="266">
+      <c r="D36" s="286"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="280">
         <v>300</v>
       </c>
-      <c r="G36" s="266"/>
-      <c r="H36" s="266"/>
-      <c r="I36" s="266">
+      <c r="G36" s="280"/>
+      <c r="H36" s="280"/>
+      <c r="I36" s="280">
         <v>300</v>
       </c>
-      <c r="J36" s="266"/>
-      <c r="K36" s="266"/>
-      <c r="L36" s="266">
+      <c r="J36" s="280"/>
+      <c r="K36" s="280"/>
+      <c r="L36" s="280">
         <v>300</v>
       </c>
-      <c r="M36" s="266"/>
-      <c r="N36" s="266"/>
-      <c r="O36" s="266">
+      <c r="M36" s="280"/>
+      <c r="N36" s="280"/>
+      <c r="O36" s="280">
         <v>300</v>
       </c>
-      <c r="P36" s="266"/>
-      <c r="Q36" s="266"/>
-      <c r="R36" s="267">
+      <c r="P36" s="280"/>
+      <c r="Q36" s="280"/>
+      <c r="R36" s="279">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S36" s="267"/>
-      <c r="T36" s="267"/>
-      <c r="U36" s="325">
+      <c r="S36" s="279"/>
+      <c r="T36" s="279"/>
+      <c r="U36" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V36" s="325"/>
-      <c r="W36" s="325"/>
-      <c r="X36" s="325"/>
-      <c r="Y36" s="332">
+      <c r="V36" s="265"/>
+      <c r="W36" s="265"/>
+      <c r="X36" s="266"/>
+      <c r="Y36" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="332"/>
-      <c r="AA36" s="332"/>
+      <c r="Z36" s="254"/>
+      <c r="AA36" s="254"/>
     </row>
     <row r="37" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="274">
+      <c r="C37" s="286">
         <v>400</v>
       </c>
-      <c r="D37" s="274"/>
-      <c r="E37" s="274"/>
-      <c r="F37" s="262">
+      <c r="D37" s="286"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="281">
         <v>400</v>
       </c>
-      <c r="G37" s="262"/>
-      <c r="H37" s="262"/>
-      <c r="I37" s="262">
+      <c r="G37" s="281"/>
+      <c r="H37" s="281"/>
+      <c r="I37" s="281">
         <v>400</v>
       </c>
-      <c r="J37" s="262"/>
-      <c r="K37" s="262"/>
-      <c r="L37" s="262">
+      <c r="J37" s="281"/>
+      <c r="K37" s="281"/>
+      <c r="L37" s="281">
         <v>400</v>
       </c>
-      <c r="M37" s="262"/>
-      <c r="N37" s="262"/>
-      <c r="O37" s="262">
+      <c r="M37" s="281"/>
+      <c r="N37" s="281"/>
+      <c r="O37" s="281">
         <v>400</v>
       </c>
-      <c r="P37" s="262"/>
-      <c r="Q37" s="262"/>
-      <c r="R37" s="267">
+      <c r="P37" s="281"/>
+      <c r="Q37" s="281"/>
+      <c r="R37" s="279">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="S37" s="267"/>
-      <c r="T37" s="267"/>
-      <c r="U37" s="325">
+      <c r="S37" s="279"/>
+      <c r="T37" s="279"/>
+      <c r="U37" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V37" s="325"/>
-      <c r="W37" s="325"/>
-      <c r="X37" s="325"/>
-      <c r="Y37" s="332">
+      <c r="V37" s="265"/>
+      <c r="W37" s="265"/>
+      <c r="X37" s="266"/>
+      <c r="Y37" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="332"/>
-      <c r="AA37" s="332"/>
+      <c r="Z37" s="254"/>
+      <c r="AA37" s="254"/>
     </row>
     <row r="38" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="274">
+      <c r="C38" s="286">
         <v>500</v>
       </c>
-      <c r="D38" s="274"/>
-      <c r="E38" s="274"/>
-      <c r="F38" s="262">
+      <c r="D38" s="286"/>
+      <c r="E38" s="286"/>
+      <c r="F38" s="281">
         <v>500</v>
       </c>
-      <c r="G38" s="262"/>
-      <c r="H38" s="262"/>
-      <c r="I38" s="262">
+      <c r="G38" s="281"/>
+      <c r="H38" s="281"/>
+      <c r="I38" s="281">
         <v>500</v>
       </c>
-      <c r="J38" s="262"/>
-      <c r="K38" s="262"/>
-      <c r="L38" s="262">
+      <c r="J38" s="281"/>
+      <c r="K38" s="281"/>
+      <c r="L38" s="281">
         <v>500</v>
       </c>
-      <c r="M38" s="262"/>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262">
+      <c r="M38" s="281"/>
+      <c r="N38" s="281"/>
+      <c r="O38" s="281">
         <v>500</v>
       </c>
-      <c r="P38" s="262"/>
-      <c r="Q38" s="262"/>
-      <c r="R38" s="267">
+      <c r="P38" s="281"/>
+      <c r="Q38" s="281"/>
+      <c r="R38" s="279">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="S38" s="267"/>
-      <c r="T38" s="267"/>
-      <c r="U38" s="325">
+      <c r="S38" s="279"/>
+      <c r="T38" s="279"/>
+      <c r="U38" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V38" s="325"/>
-      <c r="W38" s="325"/>
-      <c r="X38" s="325"/>
-      <c r="Y38" s="332">
+      <c r="V38" s="265"/>
+      <c r="W38" s="265"/>
+      <c r="X38" s="266"/>
+      <c r="Y38" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="332"/>
-      <c r="AA38" s="332"/>
+      <c r="Z38" s="254"/>
+      <c r="AA38" s="254"/>
     </row>
     <row r="39" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="274">
+      <c r="C39" s="286">
         <v>600</v>
       </c>
-      <c r="D39" s="274"/>
-      <c r="E39" s="274"/>
-      <c r="F39" s="262">
+      <c r="D39" s="286"/>
+      <c r="E39" s="286"/>
+      <c r="F39" s="281">
         <v>600</v>
       </c>
-      <c r="G39" s="262"/>
-      <c r="H39" s="262"/>
-      <c r="I39" s="262">
+      <c r="G39" s="281"/>
+      <c r="H39" s="281"/>
+      <c r="I39" s="281">
         <v>600</v>
       </c>
-      <c r="J39" s="262"/>
-      <c r="K39" s="262"/>
-      <c r="L39" s="262">
+      <c r="J39" s="281"/>
+      <c r="K39" s="281"/>
+      <c r="L39" s="281">
         <v>600</v>
       </c>
-      <c r="M39" s="262"/>
-      <c r="N39" s="262"/>
-      <c r="O39" s="262">
+      <c r="M39" s="281"/>
+      <c r="N39" s="281"/>
+      <c r="O39" s="281">
         <v>600</v>
       </c>
-      <c r="P39" s="262"/>
-      <c r="Q39" s="262"/>
-      <c r="R39" s="267">
+      <c r="P39" s="281"/>
+      <c r="Q39" s="281"/>
+      <c r="R39" s="279">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="S39" s="267"/>
-      <c r="T39" s="267"/>
-      <c r="U39" s="325">
+      <c r="S39" s="279"/>
+      <c r="T39" s="279"/>
+      <c r="U39" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V39" s="325"/>
-      <c r="W39" s="325"/>
-      <c r="X39" s="325"/>
-      <c r="Y39" s="332">
+      <c r="V39" s="265"/>
+      <c r="W39" s="265"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="332"/>
-      <c r="AA39" s="332"/>
+      <c r="Z39" s="254"/>
+      <c r="AA39" s="254"/>
     </row>
     <row r="40" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="274">
+      <c r="C40" s="286">
         <v>700</v>
       </c>
-      <c r="D40" s="274"/>
-      <c r="E40" s="274"/>
-      <c r="F40" s="262">
+      <c r="D40" s="286"/>
+      <c r="E40" s="286"/>
+      <c r="F40" s="281">
         <v>700</v>
       </c>
-      <c r="G40" s="262"/>
-      <c r="H40" s="262"/>
-      <c r="I40" s="262">
+      <c r="G40" s="281"/>
+      <c r="H40" s="281"/>
+      <c r="I40" s="281">
         <v>700</v>
       </c>
-      <c r="J40" s="262"/>
-      <c r="K40" s="262"/>
-      <c r="L40" s="262">
+      <c r="J40" s="281"/>
+      <c r="K40" s="281"/>
+      <c r="L40" s="281">
         <v>700</v>
       </c>
-      <c r="M40" s="262"/>
-      <c r="N40" s="262"/>
-      <c r="O40" s="262">
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="281">
         <v>700</v>
       </c>
-      <c r="P40" s="262"/>
-      <c r="Q40" s="262"/>
-      <c r="R40" s="267">
+      <c r="P40" s="281"/>
+      <c r="Q40" s="281"/>
+      <c r="R40" s="279">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="S40" s="267"/>
-      <c r="T40" s="267"/>
-      <c r="U40" s="325">
+      <c r="S40" s="279"/>
+      <c r="T40" s="279"/>
+      <c r="U40" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V40" s="325"/>
-      <c r="W40" s="325"/>
-      <c r="X40" s="325"/>
-      <c r="Y40" s="332">
+      <c r="V40" s="265"/>
+      <c r="W40" s="265"/>
+      <c r="X40" s="266"/>
+      <c r="Y40" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="332"/>
-      <c r="AA40" s="332"/>
+      <c r="Z40" s="254"/>
+      <c r="AA40" s="254"/>
     </row>
     <row r="41" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="274">
+      <c r="C41" s="286">
         <v>800</v>
       </c>
-      <c r="D41" s="274"/>
-      <c r="E41" s="274"/>
-      <c r="F41" s="262">
+      <c r="D41" s="286"/>
+      <c r="E41" s="286"/>
+      <c r="F41" s="281">
         <v>800</v>
       </c>
-      <c r="G41" s="262"/>
-      <c r="H41" s="262"/>
-      <c r="I41" s="262">
+      <c r="G41" s="281"/>
+      <c r="H41" s="281"/>
+      <c r="I41" s="281">
         <v>800</v>
       </c>
-      <c r="J41" s="262"/>
-      <c r="K41" s="262"/>
-      <c r="L41" s="262">
+      <c r="J41" s="281"/>
+      <c r="K41" s="281"/>
+      <c r="L41" s="281">
         <v>800</v>
       </c>
-      <c r="M41" s="262"/>
-      <c r="N41" s="262"/>
-      <c r="O41" s="262">
+      <c r="M41" s="281"/>
+      <c r="N41" s="281"/>
+      <c r="O41" s="281">
         <v>800</v>
       </c>
-      <c r="P41" s="262"/>
-      <c r="Q41" s="262"/>
-      <c r="R41" s="267">
+      <c r="P41" s="281"/>
+      <c r="Q41" s="281"/>
+      <c r="R41" s="279">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="S41" s="267"/>
-      <c r="T41" s="267"/>
-      <c r="U41" s="325">
+      <c r="S41" s="279"/>
+      <c r="T41" s="279"/>
+      <c r="U41" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V41" s="325"/>
-      <c r="W41" s="325"/>
-      <c r="X41" s="325"/>
-      <c r="Y41" s="332">
+      <c r="V41" s="265"/>
+      <c r="W41" s="265"/>
+      <c r="X41" s="266"/>
+      <c r="Y41" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="332"/>
-      <c r="AA41" s="332"/>
+      <c r="Z41" s="254"/>
+      <c r="AA41" s="254"/>
     </row>
     <row r="42" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="274">
+      <c r="C42" s="286">
         <v>900</v>
       </c>
-      <c r="D42" s="274"/>
-      <c r="E42" s="274"/>
-      <c r="F42" s="262">
+      <c r="D42" s="286"/>
+      <c r="E42" s="286"/>
+      <c r="F42" s="281">
         <v>900</v>
       </c>
-      <c r="G42" s="262"/>
-      <c r="H42" s="262"/>
-      <c r="I42" s="262">
+      <c r="G42" s="281"/>
+      <c r="H42" s="281"/>
+      <c r="I42" s="281">
         <v>900</v>
       </c>
-      <c r="J42" s="262"/>
-      <c r="K42" s="262"/>
-      <c r="L42" s="262">
+      <c r="J42" s="281"/>
+      <c r="K42" s="281"/>
+      <c r="L42" s="281">
         <v>900</v>
       </c>
-      <c r="M42" s="262"/>
-      <c r="N42" s="262"/>
-      <c r="O42" s="262">
+      <c r="M42" s="281"/>
+      <c r="N42" s="281"/>
+      <c r="O42" s="281">
         <v>900</v>
       </c>
-      <c r="P42" s="262"/>
-      <c r="Q42" s="262"/>
-      <c r="R42" s="267">
+      <c r="P42" s="281"/>
+      <c r="Q42" s="281"/>
+      <c r="R42" s="279">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="S42" s="267"/>
-      <c r="T42" s="267"/>
-      <c r="U42" s="325">
+      <c r="S42" s="279"/>
+      <c r="T42" s="279"/>
+      <c r="U42" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V42" s="325"/>
-      <c r="W42" s="325"/>
-      <c r="X42" s="325"/>
-      <c r="Y42" s="332">
+      <c r="V42" s="265"/>
+      <c r="W42" s="265"/>
+      <c r="X42" s="266"/>
+      <c r="Y42" s="254">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="332"/>
-      <c r="AA42" s="332"/>
+      <c r="Z42" s="254"/>
+      <c r="AA42" s="254"/>
     </row>
     <row r="43" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="274">
+      <c r="C43" s="286">
         <v>1000</v>
       </c>
-      <c r="D43" s="274"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="262">
+      <c r="D43" s="286"/>
+      <c r="E43" s="286"/>
+      <c r="F43" s="281">
         <v>1000</v>
       </c>
-      <c r="G43" s="262"/>
-      <c r="H43" s="262"/>
-      <c r="I43" s="262">
+      <c r="G43" s="281"/>
+      <c r="H43" s="281"/>
+      <c r="I43" s="281">
         <v>1000</v>
       </c>
-      <c r="J43" s="262"/>
-      <c r="K43" s="262"/>
-      <c r="L43" s="262">
+      <c r="J43" s="281"/>
+      <c r="K43" s="281"/>
+      <c r="L43" s="281">
         <v>1000</v>
       </c>
-      <c r="M43" s="262"/>
-      <c r="N43" s="262"/>
-      <c r="O43" s="262">
+      <c r="M43" s="281"/>
+      <c r="N43" s="281"/>
+      <c r="O43" s="281">
         <v>1000</v>
       </c>
-      <c r="P43" s="262"/>
-      <c r="Q43" s="262"/>
-      <c r="R43" s="267">
+      <c r="P43" s="281"/>
+      <c r="Q43" s="281"/>
+      <c r="R43" s="279">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="S43" s="267"/>
-      <c r="T43" s="267"/>
-      <c r="U43" s="325">
+      <c r="S43" s="279"/>
+      <c r="T43" s="279"/>
+      <c r="U43" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V43" s="325"/>
-      <c r="W43" s="325"/>
-      <c r="X43" s="325"/>
-      <c r="Y43" s="332">
+      <c r="V43" s="265"/>
+      <c r="W43" s="265"/>
+      <c r="X43" s="266"/>
+      <c r="Y43" s="254">
         <f>R43-C43</f>
         <v>0</v>
       </c>
-      <c r="Z43" s="332"/>
-      <c r="AA43" s="332"/>
+      <c r="Z43" s="254"/>
+      <c r="AA43" s="254"/>
     </row>
     <row r="44" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="298">
+      <c r="C44" s="299">
         <v>1500</v>
       </c>
-      <c r="D44" s="299"/>
-      <c r="E44" s="300"/>
-      <c r="F44" s="301">
+      <c r="D44" s="300"/>
+      <c r="E44" s="301"/>
+      <c r="F44" s="282">
         <v>1500.01</v>
       </c>
-      <c r="G44" s="302"/>
-      <c r="H44" s="303"/>
-      <c r="I44" s="301">
+      <c r="G44" s="283"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="282">
         <v>1500.01</v>
       </c>
-      <c r="J44" s="302"/>
-      <c r="K44" s="303"/>
-      <c r="L44" s="301">
+      <c r="J44" s="283"/>
+      <c r="K44" s="284"/>
+      <c r="L44" s="282">
         <v>1500.01</v>
       </c>
-      <c r="M44" s="302"/>
-      <c r="N44" s="303"/>
-      <c r="O44" s="301">
+      <c r="M44" s="283"/>
+      <c r="N44" s="284"/>
+      <c r="O44" s="282">
         <v>1500.01</v>
       </c>
-      <c r="P44" s="302"/>
-      <c r="Q44" s="303"/>
-      <c r="R44" s="326">
+      <c r="P44" s="283"/>
+      <c r="Q44" s="284"/>
+      <c r="R44" s="276">
         <f t="shared" si="0"/>
         <v>1500.01</v>
       </c>
-      <c r="S44" s="327"/>
-      <c r="T44" s="328"/>
-      <c r="U44" s="336">
+      <c r="S44" s="277"/>
+      <c r="T44" s="278"/>
+      <c r="U44" s="264">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V44" s="337"/>
-      <c r="W44" s="337"/>
-      <c r="X44" s="338"/>
-      <c r="Y44" s="332">
+      <c r="V44" s="265"/>
+      <c r="W44" s="265"/>
+      <c r="X44" s="266"/>
+      <c r="Y44" s="254">
         <f>R44-C44</f>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="Z44" s="332"/>
-      <c r="AA44" s="332"/>
+      <c r="Z44" s="254"/>
+      <c r="AA44" s="254"/>
     </row>
     <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -7924,118 +7912,54 @@
     <row r="206" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y23:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U23:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="F42:H42"/>
@@ -8060,90 +7984,154 @@
     <mergeCell ref="I37:K37"/>
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="I39:K39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U23:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="I25:K25"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="L19:O19"/>
     <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F27:H27"/>
     <mergeCell ref="R24:T24"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="Q11:Y11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="O9:Y9"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y23:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="E5:Y5"/>
     <mergeCell ref="Q6:Y6"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Q11:Y11"/>
-    <mergeCell ref="F11:M11"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="L7:R7"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="O9:Y9"/>
     <mergeCell ref="Q12:Y12"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
@@ -8278,32 +8266,32 @@
     <row r="1" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="341" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="345"/>
-      <c r="R3" s="345"/>
-      <c r="S3" s="345"/>
-      <c r="T3" s="345"/>
-      <c r="U3" s="345"/>
-      <c r="V3" s="345"/>
-      <c r="W3" s="345"/>
-      <c r="X3" s="345"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="341"/>
+      <c r="Q3" s="341"/>
+      <c r="R3" s="341"/>
+      <c r="S3" s="341"/>
+      <c r="T3" s="341"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="341"/>
+      <c r="X3" s="341"/>
     </row>
     <row r="4" spans="1:256" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
@@ -11191,12 +11179,12 @@
       <c r="I15" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="346">
+      <c r="J15" s="342">
         <f>'Data Record'!L7</f>
         <v>456</v>
       </c>
-      <c r="K15" s="346"/>
-      <c r="L15" s="346"/>
+      <c r="K15" s="342"/>
+      <c r="L15" s="342"/>
       <c r="M15" s="218"/>
       <c r="N15" s="218"/>
       <c r="O15" s="4"/>
@@ -12258,12 +12246,12 @@
       <c r="V19" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="347">
+      <c r="W19" s="343">
         <f>'Data Record'!P2</f>
         <v>42716</v>
       </c>
-      <c r="X19" s="347"/>
-      <c r="Y19" s="347"/>
+      <c r="X19" s="343"/>
+      <c r="Y19" s="343"/>
       <c r="Z19" s="223"/>
       <c r="AA19" s="223"/>
       <c r="AB19" s="4"/>
@@ -12529,12 +12517,12 @@
       <c r="V20" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="347">
+      <c r="W20" s="343">
         <f>'Data Record'!Y2</f>
         <v>42716</v>
       </c>
-      <c r="X20" s="347"/>
-      <c r="Y20" s="347"/>
+      <c r="X20" s="343"/>
+      <c r="Y20" s="343"/>
       <c r="Z20" s="223"/>
       <c r="AA20" s="223"/>
       <c r="AB20" s="4"/>
@@ -12800,12 +12788,12 @@
       <c r="V21" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="348">
+      <c r="W21" s="344">
         <f>W20+365</f>
         <v>43081</v>
       </c>
-      <c r="X21" s="348"/>
-      <c r="Y21" s="348"/>
+      <c r="X21" s="344"/>
+      <c r="Y21" s="344"/>
       <c r="Z21" s="228"/>
       <c r="AA21" s="228"/>
       <c r="AB21" s="4"/>
@@ -16424,12 +16412,12 @@
       <c r="G35" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="349">
+      <c r="H35" s="345">
         <f>W20+1</f>
         <v>42717</v>
       </c>
-      <c r="I35" s="349"/>
-      <c r="J35" s="349"/>
+      <c r="I35" s="345"/>
+      <c r="J35" s="345"/>
       <c r="K35" s="233"/>
       <c r="L35" s="196"/>
       <c r="M35" s="196"/>
@@ -16707,17 +16695,17 @@
         <v>3</v>
       </c>
       <c r="R36" s="196"/>
-      <c r="S36" s="342" t="str">
+      <c r="S36" s="338" t="str">
         <f>IF(Q36=1,"( Mr.Sombut Srikampa )",IF(Q36=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="T36" s="342"/>
-      <c r="U36" s="342"/>
-      <c r="V36" s="342"/>
-      <c r="W36" s="342"/>
-      <c r="X36" s="342"/>
-      <c r="Y36" s="342"/>
-      <c r="Z36" s="342"/>
+      <c r="T36" s="338"/>
+      <c r="U36" s="338"/>
+      <c r="V36" s="338"/>
+      <c r="W36" s="338"/>
+      <c r="X36" s="338"/>
+      <c r="Y36" s="338"/>
+      <c r="Z36" s="338"/>
       <c r="AA36" s="106"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -16968,16 +16956,16 @@
       <c r="P37" s="196"/>
       <c r="Q37" s="196"/>
       <c r="R37" s="196"/>
-      <c r="S37" s="343" t="s">
+      <c r="S37" s="339" t="s">
         <v>116</v>
       </c>
-      <c r="T37" s="343"/>
-      <c r="U37" s="343"/>
-      <c r="V37" s="343"/>
-      <c r="W37" s="343"/>
-      <c r="X37" s="343"/>
-      <c r="Y37" s="343"/>
-      <c r="Z37" s="343"/>
+      <c r="T37" s="339"/>
+      <c r="U37" s="339"/>
+      <c r="V37" s="339"/>
+      <c r="W37" s="339"/>
+      <c r="X37" s="339"/>
+      <c r="Y37" s="339"/>
+      <c r="Z37" s="339"/>
       <c r="AA37" s="106"/>
       <c r="AB37" s="56"/>
       <c r="AC37" s="240"/>
@@ -17468,28 +17456,28 @@
       <c r="IV38" s="4"/>
     </row>
     <row r="39" spans="1:256" x14ac:dyDescent="0.25">
-      <c r="A39" s="344"/>
-      <c r="B39" s="344"/>
-      <c r="C39" s="344"/>
-      <c r="D39" s="344"/>
-      <c r="E39" s="344"/>
-      <c r="F39" s="344"/>
-      <c r="G39" s="344"/>
-      <c r="H39" s="344"/>
-      <c r="I39" s="344"/>
-      <c r="J39" s="344"/>
-      <c r="K39" s="344"/>
-      <c r="L39" s="344"/>
-      <c r="M39" s="344"/>
-      <c r="N39" s="344"/>
-      <c r="O39" s="344"/>
-      <c r="P39" s="344"/>
-      <c r="Q39" s="344"/>
-      <c r="R39" s="344"/>
-      <c r="S39" s="344"/>
-      <c r="T39" s="344"/>
-      <c r="U39" s="344"/>
-      <c r="V39" s="344"/>
+      <c r="A39" s="340"/>
+      <c r="B39" s="340"/>
+      <c r="C39" s="340"/>
+      <c r="D39" s="340"/>
+      <c r="E39" s="340"/>
+      <c r="F39" s="340"/>
+      <c r="G39" s="340"/>
+      <c r="H39" s="340"/>
+      <c r="I39" s="340"/>
+      <c r="J39" s="340"/>
+      <c r="K39" s="340"/>
+      <c r="L39" s="340"/>
+      <c r="M39" s="340"/>
+      <c r="N39" s="340"/>
+      <c r="O39" s="340"/>
+      <c r="P39" s="340"/>
+      <c r="Q39" s="340"/>
+      <c r="R39" s="340"/>
+      <c r="S39" s="340"/>
+      <c r="T39" s="340"/>
+      <c r="U39" s="340"/>
+      <c r="V39" s="340"/>
       <c r="W39" s="115"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -17856,30 +17844,30 @@
       <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="354" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="358"/>
-      <c r="M3" s="358"/>
-      <c r="N3" s="358"/>
-      <c r="O3" s="358"/>
-      <c r="P3" s="358"/>
-      <c r="Q3" s="358"/>
-      <c r="R3" s="358"/>
-      <c r="S3" s="358"/>
-      <c r="T3" s="358"/>
-      <c r="U3" s="358"/>
-      <c r="V3" s="358"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
+      <c r="J3" s="354"/>
+      <c r="K3" s="354"/>
+      <c r="L3" s="354"/>
+      <c r="M3" s="354"/>
+      <c r="N3" s="354"/>
+      <c r="O3" s="354"/>
+      <c r="P3" s="354"/>
+      <c r="Q3" s="354"/>
+      <c r="R3" s="354"/>
+      <c r="S3" s="354"/>
+      <c r="T3" s="354"/>
+      <c r="U3" s="354"/>
+      <c r="V3" s="354"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
@@ -17931,11 +17919,11 @@
       <c r="P5" s="58"/>
       <c r="Q5" s="58"/>
       <c r="R5" s="50"/>
-      <c r="S5" s="359" t="s">
+      <c r="S5" s="355" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="359"/>
-      <c r="U5" s="359"/>
+      <c r="T5" s="355"/>
+      <c r="U5" s="355"/>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17993,18 +17981,18 @@
       <c r="D8" s="63"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="360" t="s">
+      <c r="G8" s="356" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="360"/>
-      <c r="I8" s="360"/>
-      <c r="J8" s="360"/>
-      <c r="K8" s="360"/>
-      <c r="L8" s="360"/>
-      <c r="M8" s="360"/>
-      <c r="N8" s="360"/>
-      <c r="O8" s="360"/>
-      <c r="P8" s="360"/>
+      <c r="H8" s="356"/>
+      <c r="I8" s="356"/>
+      <c r="J8" s="356"/>
+      <c r="K8" s="356"/>
+      <c r="L8" s="356"/>
+      <c r="M8" s="356"/>
+      <c r="N8" s="356"/>
+      <c r="O8" s="356"/>
+      <c r="P8" s="356"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
@@ -18019,16 +18007,16 @@
       <c r="D9" s="63"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="360"/>
-      <c r="H9" s="360"/>
-      <c r="I9" s="360"/>
-      <c r="J9" s="360"/>
-      <c r="K9" s="360"/>
-      <c r="L9" s="360"/>
-      <c r="M9" s="360"/>
-      <c r="N9" s="360"/>
-      <c r="O9" s="360"/>
-      <c r="P9" s="360"/>
+      <c r="G9" s="356"/>
+      <c r="H9" s="356"/>
+      <c r="I9" s="356"/>
+      <c r="J9" s="356"/>
+      <c r="K9" s="356"/>
+      <c r="L9" s="356"/>
+      <c r="M9" s="356"/>
+      <c r="N9" s="356"/>
+      <c r="O9" s="356"/>
+      <c r="P9" s="356"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
@@ -18062,70 +18050,70 @@
     </row>
     <row r="11" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
-      <c r="B11" s="361" t="s">
+      <c r="B11" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="356"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="357"/>
-      <c r="H11" s="361" t="s">
+      <c r="C11" s="352"/>
+      <c r="D11" s="352"/>
+      <c r="E11" s="352"/>
+      <c r="F11" s="352"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="356"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="361" t="s">
+      <c r="I11" s="352"/>
+      <c r="J11" s="353"/>
+      <c r="K11" s="357" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="356"/>
-      <c r="M11" s="357"/>
-      <c r="N11" s="361" t="s">
+      <c r="L11" s="352"/>
+      <c r="M11" s="353"/>
+      <c r="N11" s="357" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="356"/>
-      <c r="P11" s="356"/>
-      <c r="Q11" s="357"/>
-      <c r="R11" s="356" t="s">
+      <c r="O11" s="352"/>
+      <c r="P11" s="352"/>
+      <c r="Q11" s="353"/>
+      <c r="R11" s="352" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="356"/>
-      <c r="T11" s="356"/>
-      <c r="U11" s="357"/>
+      <c r="S11" s="352"/>
+      <c r="T11" s="352"/>
+      <c r="U11" s="353"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
-      <c r="B12" s="365" t="s">
+      <c r="B12" s="361" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="366"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="366"/>
-      <c r="F12" s="366"/>
-      <c r="G12" s="366"/>
-      <c r="H12" s="362" t="s">
+      <c r="C12" s="362"/>
+      <c r="D12" s="362"/>
+      <c r="E12" s="362"/>
+      <c r="F12" s="362"/>
+      <c r="G12" s="362"/>
+      <c r="H12" s="358" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="363"/>
-      <c r="J12" s="364"/>
-      <c r="K12" s="362">
+      <c r="I12" s="359"/>
+      <c r="J12" s="360"/>
+      <c r="K12" s="358">
         <v>60711</v>
       </c>
-      <c r="L12" s="363"/>
-      <c r="M12" s="364"/>
-      <c r="N12" s="350" t="s">
+      <c r="L12" s="359"/>
+      <c r="M12" s="360"/>
+      <c r="N12" s="346" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="351"/>
-      <c r="P12" s="351"/>
-      <c r="Q12" s="352"/>
-      <c r="R12" s="353">
+      <c r="O12" s="347"/>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="348"/>
+      <c r="R12" s="349">
         <v>42336</v>
       </c>
-      <c r="S12" s="354"/>
-      <c r="T12" s="354"/>
-      <c r="U12" s="355"/>
+      <c r="S12" s="350"/>
+      <c r="T12" s="350"/>
+      <c r="U12" s="351"/>
       <c r="V12" s="84"/>
     </row>
     <row r="13" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19123,34 +19111,34 @@
       <c r="V2" s="116"/>
     </row>
     <row r="3" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="406" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="369"/>
-      <c r="Q3" s="369"/>
-      <c r="R3" s="369"/>
-      <c r="S3" s="369"/>
-      <c r="T3" s="369"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="369"/>
-      <c r="W3" s="369"/>
-      <c r="X3" s="369"/>
-      <c r="Y3" s="369"/>
-      <c r="Z3" s="369"/>
+      <c r="B3" s="406"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="406"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="406"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="406"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="406"/>
+      <c r="R3" s="406"/>
+      <c r="S3" s="406"/>
+      <c r="T3" s="406"/>
+      <c r="U3" s="406"/>
+      <c r="V3" s="406"/>
+      <c r="W3" s="406"/>
+      <c r="X3" s="406"/>
+      <c r="Y3" s="406"/>
+      <c r="Z3" s="406"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="116"/>
@@ -19232,20 +19220,20 @@
         <v>Range :</v>
       </c>
       <c r="E7" s="173"/>
-      <c r="F7" s="367">
+      <c r="F7" s="404">
         <f>'Data Record'!C8</f>
         <v>0</v>
       </c>
-      <c r="G7" s="367"/>
+      <c r="G7" s="404"/>
       <c r="H7" s="247" t="str">
         <f>'Data Record'!E8</f>
         <v>to</v>
       </c>
-      <c r="I7" s="368">
+      <c r="I7" s="405">
         <f>'Data Record'!F8</f>
         <v>150</v>
       </c>
-      <c r="J7" s="368"/>
+      <c r="J7" s="405"/>
       <c r="K7" s="247" t="str">
         <f>'Data Record'!H8</f>
         <v>mm</v>
@@ -19258,11 +19246,11 @@
       </c>
       <c r="O7" s="168"/>
       <c r="P7" s="118"/>
-      <c r="Q7" s="367">
+      <c r="Q7" s="404">
         <f>'Data Record'!N8</f>
         <v>0.01</v>
       </c>
-      <c r="R7" s="367"/>
+      <c r="R7" s="404"/>
       <c r="S7" s="250" t="str">
         <f>'Data Record'!P8</f>
         <v>mm</v>
@@ -19317,10 +19305,10 @@
       <c r="M9" s="118"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
-      <c r="P9" s="389" t="s">
+      <c r="P9" s="367" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="389"/>
+      <c r="Q9" s="367"/>
       <c r="R9" s="118" t="s">
         <v>19</v>
       </c>
@@ -19336,27 +19324,27 @@
       <c r="C10" s="118"/>
       <c r="D10" s="118"/>
       <c r="E10" s="118"/>
-      <c r="F10" s="390" t="s">
+      <c r="F10" s="368" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="391"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="390" t="s">
+      <c r="G10" s="369"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="368" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="391"/>
-      <c r="K10" s="392"/>
-      <c r="L10" s="396" t="s">
+      <c r="J10" s="369"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="374" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="397"/>
-      <c r="N10" s="398"/>
-      <c r="O10" s="390" t="s">
+      <c r="M10" s="375"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="368" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="391"/>
-      <c r="Q10" s="391"/>
-      <c r="R10" s="392"/>
+      <c r="P10" s="369"/>
+      <c r="Q10" s="369"/>
+      <c r="R10" s="370"/>
       <c r="S10" s="118"/>
       <c r="T10" s="174"/>
       <c r="U10" s="128"/>
@@ -19369,19 +19357,19 @@
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
       <c r="E11" s="118"/>
-      <c r="F11" s="393"/>
-      <c r="G11" s="394"/>
-      <c r="H11" s="395"/>
-      <c r="I11" s="393"/>
-      <c r="J11" s="394"/>
-      <c r="K11" s="395"/>
-      <c r="L11" s="399"/>
-      <c r="M11" s="400"/>
-      <c r="N11" s="401"/>
-      <c r="O11" s="393"/>
-      <c r="P11" s="394"/>
-      <c r="Q11" s="394"/>
-      <c r="R11" s="395"/>
+      <c r="F11" s="371"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="373"/>
+      <c r="I11" s="371"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="373"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="378"/>
+      <c r="N11" s="379"/>
+      <c r="O11" s="371"/>
+      <c r="P11" s="372"/>
+      <c r="Q11" s="372"/>
+      <c r="R11" s="373"/>
       <c r="S11" s="118"/>
       <c r="T11" s="174"/>
       <c r="U11" s="128"/>
@@ -19394,31 +19382,31 @@
       <c r="C12" s="173"/>
       <c r="D12" s="118"/>
       <c r="E12" s="118"/>
-      <c r="F12" s="385">
+      <c r="F12" s="392">
         <f>'Data Record'!C25</f>
         <v>0</v>
       </c>
-      <c r="G12" s="386"/>
-      <c r="H12" s="387"/>
-      <c r="I12" s="373">
+      <c r="G12" s="393"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="398">
         <f>'Data Record'!R25</f>
         <v>0</v>
       </c>
-      <c r="J12" s="374"/>
-      <c r="K12" s="375"/>
-      <c r="L12" s="373">
+      <c r="J12" s="399"/>
+      <c r="K12" s="400"/>
+      <c r="L12" s="398">
         <f>'Data Record'!Y25</f>
         <v>0</v>
       </c>
-      <c r="M12" s="374"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="379">
+      <c r="M12" s="399"/>
+      <c r="N12" s="400"/>
+      <c r="O12" s="401">
         <f>'Uncertainty Budget (Ext)'!P7</f>
         <v>5.7738144526243082E-3</v>
       </c>
-      <c r="P12" s="380"/>
-      <c r="Q12" s="380"/>
-      <c r="R12" s="381"/>
+      <c r="P12" s="402"/>
+      <c r="Q12" s="402"/>
+      <c r="R12" s="403"/>
       <c r="S12" s="118"/>
       <c r="T12" s="174"/>
       <c r="U12" s="128"/>
@@ -19431,31 +19419,31 @@
       <c r="C13" s="173"/>
       <c r="D13" s="118"/>
       <c r="E13" s="118"/>
-      <c r="F13" s="382">
+      <c r="F13" s="383">
         <f>'Data Record'!C26</f>
         <v>1</v>
       </c>
-      <c r="G13" s="383"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="370">
+      <c r="G13" s="384"/>
+      <c r="H13" s="385"/>
+      <c r="I13" s="363">
         <f>'Data Record'!R26</f>
         <v>1</v>
       </c>
-      <c r="J13" s="371"/>
-      <c r="K13" s="372"/>
-      <c r="L13" s="370">
+      <c r="J13" s="364"/>
+      <c r="K13" s="365"/>
+      <c r="L13" s="363">
         <f>'Data Record'!Y26</f>
         <v>0</v>
       </c>
-      <c r="M13" s="371"/>
-      <c r="N13" s="372"/>
-      <c r="O13" s="376">
+      <c r="M13" s="364"/>
+      <c r="N13" s="365"/>
+      <c r="O13" s="395">
         <f>'Uncertainty Budget (Ext)'!P8</f>
         <v>5.773829722694173E-3</v>
       </c>
-      <c r="P13" s="377"/>
-      <c r="Q13" s="377"/>
-      <c r="R13" s="378"/>
+      <c r="P13" s="396"/>
+      <c r="Q13" s="396"/>
+      <c r="R13" s="397"/>
       <c r="S13" s="118"/>
       <c r="T13" s="174"/>
       <c r="U13" s="128"/>
@@ -19468,31 +19456,31 @@
       <c r="C14" s="173"/>
       <c r="D14" s="118"/>
       <c r="E14" s="118"/>
-      <c r="F14" s="382">
+      <c r="F14" s="383">
         <f>'Data Record'!C27</f>
         <v>1.5</v>
       </c>
-      <c r="G14" s="383"/>
-      <c r="H14" s="384"/>
-      <c r="I14" s="370">
+      <c r="G14" s="384"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="363">
         <f>'Data Record'!R27</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="371"/>
-      <c r="K14" s="372"/>
-      <c r="L14" s="370">
+      <c r="J14" s="364"/>
+      <c r="K14" s="365"/>
+      <c r="L14" s="363">
         <f>'Data Record'!Y27</f>
         <v>0</v>
       </c>
-      <c r="M14" s="371"/>
-      <c r="N14" s="372"/>
-      <c r="O14" s="376">
+      <c r="M14" s="364"/>
+      <c r="N14" s="365"/>
+      <c r="O14" s="395">
         <f>'Uncertainty Budget (Ext)'!P9</f>
         <v>5.7738488102247135E-3</v>
       </c>
-      <c r="P14" s="377"/>
-      <c r="Q14" s="377"/>
-      <c r="R14" s="378"/>
+      <c r="P14" s="396"/>
+      <c r="Q14" s="396"/>
+      <c r="R14" s="397"/>
       <c r="S14" s="118"/>
       <c r="T14" s="174"/>
       <c r="U14" s="128"/>
@@ -19505,31 +19493,31 @@
       <c r="C15" s="173"/>
       <c r="D15" s="118"/>
       <c r="E15" s="118"/>
-      <c r="F15" s="382">
+      <c r="F15" s="383">
         <f>'Data Record'!C28</f>
         <v>5</v>
       </c>
-      <c r="G15" s="383"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="370">
+      <c r="G15" s="384"/>
+      <c r="H15" s="385"/>
+      <c r="I15" s="363">
         <f>'Data Record'!R28</f>
         <v>5</v>
       </c>
-      <c r="J15" s="371"/>
-      <c r="K15" s="372"/>
-      <c r="L15" s="370">
+      <c r="J15" s="364"/>
+      <c r="K15" s="365"/>
+      <c r="L15" s="363">
         <f>'Data Record'!Y28</f>
         <v>0</v>
       </c>
-      <c r="M15" s="371"/>
-      <c r="N15" s="372"/>
-      <c r="O15" s="376">
+      <c r="M15" s="364"/>
+      <c r="N15" s="365"/>
+      <c r="O15" s="395">
         <f>'Uncertainty Budget (Ext)'!P10</f>
         <v>5.7741961922562583E-3</v>
       </c>
-      <c r="P15" s="377"/>
-      <c r="Q15" s="377"/>
-      <c r="R15" s="378"/>
+      <c r="P15" s="396"/>
+      <c r="Q15" s="396"/>
+      <c r="R15" s="397"/>
       <c r="S15" s="118"/>
       <c r="T15" s="174"/>
       <c r="U15" s="128"/>
@@ -19542,31 +19530,31 @@
       <c r="C16" s="173"/>
       <c r="D16" s="118"/>
       <c r="E16" s="118"/>
-      <c r="F16" s="382">
+      <c r="F16" s="383">
         <f>'Data Record'!C29</f>
         <v>10</v>
       </c>
-      <c r="G16" s="383"/>
-      <c r="H16" s="384"/>
-      <c r="I16" s="370">
+      <c r="G16" s="384"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="363">
         <f>'Data Record'!R29</f>
         <v>10</v>
       </c>
-      <c r="J16" s="371"/>
-      <c r="K16" s="372"/>
-      <c r="L16" s="370">
+      <c r="J16" s="364"/>
+      <c r="K16" s="365"/>
+      <c r="L16" s="363">
         <f>'Data Record'!Y29</f>
         <v>0</v>
       </c>
-      <c r="M16" s="371"/>
-      <c r="N16" s="372"/>
-      <c r="O16" s="376">
+      <c r="M16" s="364"/>
+      <c r="N16" s="365"/>
+      <c r="O16" s="395">
         <f>'Uncertainty Budget (Ext)'!P11</f>
         <v>5.7753412597583067E-3</v>
       </c>
-      <c r="P16" s="377"/>
-      <c r="Q16" s="377"/>
-      <c r="R16" s="378"/>
+      <c r="P16" s="396"/>
+      <c r="Q16" s="396"/>
+      <c r="R16" s="397"/>
       <c r="S16" s="118"/>
       <c r="T16" s="174"/>
       <c r="U16" s="128"/>
@@ -19579,31 +19567,31 @@
       <c r="C17" s="173"/>
       <c r="D17" s="118"/>
       <c r="E17" s="118"/>
-      <c r="F17" s="382">
+      <c r="F17" s="383">
         <f>'Data Record'!C30</f>
         <v>20</v>
       </c>
-      <c r="G17" s="383"/>
-      <c r="H17" s="384"/>
-      <c r="I17" s="370">
+      <c r="G17" s="384"/>
+      <c r="H17" s="385"/>
+      <c r="I17" s="363">
         <f>'Data Record'!R30</f>
         <v>20</v>
       </c>
-      <c r="J17" s="371"/>
-      <c r="K17" s="372"/>
-      <c r="L17" s="370">
+      <c r="J17" s="364"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="363">
         <f>'Data Record'!Y30</f>
         <v>0</v>
       </c>
-      <c r="M17" s="371"/>
-      <c r="N17" s="372"/>
-      <c r="O17" s="376">
+      <c r="M17" s="364"/>
+      <c r="N17" s="365"/>
+      <c r="O17" s="395">
         <f>'Uncertainty Budget (Ext)'!P12</f>
         <v>5.7800317184827513E-3</v>
       </c>
-      <c r="P17" s="377"/>
-      <c r="Q17" s="377"/>
-      <c r="R17" s="378"/>
+      <c r="P17" s="396"/>
+      <c r="Q17" s="396"/>
+      <c r="R17" s="397"/>
       <c r="S17" s="118"/>
       <c r="T17" s="174"/>
       <c r="U17" s="128"/>
@@ -19616,31 +19604,31 @@
       <c r="C18" s="173"/>
       <c r="D18" s="118"/>
       <c r="E18" s="118"/>
-      <c r="F18" s="382">
+      <c r="F18" s="383">
         <f>'Data Record'!C31</f>
         <v>50</v>
       </c>
-      <c r="G18" s="383"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="370">
+      <c r="G18" s="384"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="363">
         <f>'Data Record'!R31</f>
         <v>50</v>
       </c>
-      <c r="J18" s="371"/>
-      <c r="K18" s="372"/>
-      <c r="L18" s="370">
+      <c r="J18" s="364"/>
+      <c r="K18" s="365"/>
+      <c r="L18" s="363">
         <f>'Data Record'!Y31</f>
         <v>0</v>
       </c>
-      <c r="M18" s="371"/>
-      <c r="N18" s="372"/>
-      <c r="O18" s="376">
+      <c r="M18" s="364"/>
+      <c r="N18" s="365"/>
+      <c r="O18" s="395">
         <f>'Uncertainty Budget (Ext)'!P13</f>
         <v>5.8122514283766727E-3</v>
       </c>
-      <c r="P18" s="377"/>
-      <c r="Q18" s="377"/>
-      <c r="R18" s="378"/>
+      <c r="P18" s="396"/>
+      <c r="Q18" s="396"/>
+      <c r="R18" s="397"/>
       <c r="S18" s="118"/>
       <c r="T18" s="174"/>
       <c r="U18" s="128"/>
@@ -19653,31 +19641,31 @@
       <c r="C19" s="173"/>
       <c r="D19" s="118"/>
       <c r="E19" s="118"/>
-      <c r="F19" s="382">
+      <c r="F19" s="383">
         <f>'Data Record'!C32</f>
         <v>100</v>
       </c>
-      <c r="G19" s="383"/>
-      <c r="H19" s="384"/>
-      <c r="I19" s="370">
+      <c r="G19" s="384"/>
+      <c r="H19" s="385"/>
+      <c r="I19" s="363">
         <f>'Data Record'!R32</f>
         <v>100</v>
       </c>
-      <c r="J19" s="371"/>
-      <c r="K19" s="372"/>
-      <c r="L19" s="370">
+      <c r="J19" s="364"/>
+      <c r="K19" s="365"/>
+      <c r="L19" s="363">
         <f>'Data Record'!Y32</f>
         <v>0</v>
       </c>
-      <c r="M19" s="371"/>
-      <c r="N19" s="372"/>
-      <c r="O19" s="376">
+      <c r="M19" s="364"/>
+      <c r="N19" s="365"/>
+      <c r="O19" s="395">
         <f>'Uncertainty Budget (Ext)'!P14</f>
         <v>5.9254591945828699E-3</v>
       </c>
-      <c r="P19" s="377"/>
-      <c r="Q19" s="377"/>
-      <c r="R19" s="378"/>
+      <c r="P19" s="396"/>
+      <c r="Q19" s="396"/>
+      <c r="R19" s="397"/>
       <c r="S19" s="118"/>
       <c r="T19" s="174"/>
       <c r="U19" s="128"/>
@@ -19690,31 +19678,31 @@
       <c r="C20" s="173"/>
       <c r="D20" s="118"/>
       <c r="E20" s="118"/>
-      <c r="F20" s="382">
+      <c r="F20" s="383">
         <f>'Data Record'!C33</f>
         <v>150</v>
       </c>
-      <c r="G20" s="383"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="370">
+      <c r="G20" s="384"/>
+      <c r="H20" s="385"/>
+      <c r="I20" s="363">
         <f>'Data Record'!R33</f>
         <v>150</v>
       </c>
-      <c r="J20" s="371"/>
-      <c r="K20" s="372"/>
-      <c r="L20" s="370">
+      <c r="J20" s="364"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="363">
         <f>'Data Record'!Y33</f>
         <v>0</v>
       </c>
-      <c r="M20" s="371"/>
-      <c r="N20" s="372"/>
-      <c r="O20" s="376">
+      <c r="M20" s="364"/>
+      <c r="N20" s="365"/>
+      <c r="O20" s="395">
         <f>'Uncertainty Budget (Ext)'!P15</f>
         <v>6.125498619160185E-3</v>
       </c>
-      <c r="P20" s="377"/>
-      <c r="Q20" s="377"/>
-      <c r="R20" s="378"/>
+      <c r="P20" s="396"/>
+      <c r="Q20" s="396"/>
+      <c r="R20" s="397"/>
       <c r="S20" s="118"/>
       <c r="T20" s="174"/>
       <c r="U20" s="128"/>
@@ -19727,31 +19715,31 @@
       <c r="C21" s="173"/>
       <c r="D21" s="118"/>
       <c r="E21" s="118"/>
-      <c r="F21" s="382">
+      <c r="F21" s="383">
         <f>'Data Record'!C34</f>
         <v>200</v>
       </c>
-      <c r="G21" s="383"/>
-      <c r="H21" s="384"/>
-      <c r="I21" s="370">
+      <c r="G21" s="384"/>
+      <c r="H21" s="385"/>
+      <c r="I21" s="363">
         <f>'Data Record'!R34</f>
         <v>200</v>
       </c>
-      <c r="J21" s="371"/>
-      <c r="K21" s="372"/>
-      <c r="L21" s="370">
+      <c r="J21" s="364"/>
+      <c r="K21" s="365"/>
+      <c r="L21" s="363">
         <f>'Data Record'!Y34</f>
         <v>0</v>
       </c>
-      <c r="M21" s="371"/>
-      <c r="N21" s="372"/>
-      <c r="O21" s="376">
+      <c r="M21" s="364"/>
+      <c r="N21" s="365"/>
+      <c r="O21" s="395">
         <f>'Uncertainty Budget (Ext)'!P16</f>
         <v>6.3788060533822993E-3</v>
       </c>
-      <c r="P21" s="377"/>
-      <c r="Q21" s="377"/>
-      <c r="R21" s="378"/>
+      <c r="P21" s="396"/>
+      <c r="Q21" s="396"/>
+      <c r="R21" s="397"/>
       <c r="S21" s="118"/>
       <c r="T21" s="174"/>
       <c r="U21" s="128"/>
@@ -19764,31 +19752,31 @@
       <c r="C22" s="173"/>
       <c r="D22" s="118"/>
       <c r="E22" s="118"/>
-      <c r="F22" s="382">
+      <c r="F22" s="383">
         <f>'Data Record'!C35</f>
         <v>250</v>
       </c>
-      <c r="G22" s="383"/>
-      <c r="H22" s="384"/>
-      <c r="I22" s="370">
+      <c r="G22" s="384"/>
+      <c r="H22" s="385"/>
+      <c r="I22" s="363">
         <f>'Data Record'!R35</f>
         <v>250</v>
       </c>
-      <c r="J22" s="371"/>
-      <c r="K22" s="372"/>
-      <c r="L22" s="370">
+      <c r="J22" s="364"/>
+      <c r="K22" s="365"/>
+      <c r="L22" s="363">
         <f>'Data Record'!Y35</f>
         <v>0</v>
       </c>
-      <c r="M22" s="371"/>
-      <c r="N22" s="372"/>
-      <c r="O22" s="376">
+      <c r="M22" s="364"/>
+      <c r="N22" s="365"/>
+      <c r="O22" s="395">
         <f>'Uncertainty Budget (Ext)'!P17</f>
         <v>6.689623806064633E-3</v>
       </c>
-      <c r="P22" s="377"/>
-      <c r="Q22" s="377"/>
-      <c r="R22" s="378"/>
+      <c r="P22" s="396"/>
+      <c r="Q22" s="396"/>
+      <c r="R22" s="397"/>
       <c r="S22" s="118"/>
       <c r="T22" s="174"/>
       <c r="U22" s="128"/>
@@ -19801,31 +19789,31 @@
       <c r="C23" s="173"/>
       <c r="D23" s="118"/>
       <c r="E23" s="118"/>
-      <c r="F23" s="382">
+      <c r="F23" s="383">
         <f>'Data Record'!C36</f>
         <v>300</v>
       </c>
-      <c r="G23" s="383"/>
-      <c r="H23" s="384"/>
-      <c r="I23" s="370">
+      <c r="G23" s="384"/>
+      <c r="H23" s="385"/>
+      <c r="I23" s="363">
         <f>'Data Record'!R36</f>
         <v>300</v>
       </c>
-      <c r="J23" s="371"/>
-      <c r="K23" s="372"/>
-      <c r="L23" s="370">
+      <c r="J23" s="364"/>
+      <c r="K23" s="365"/>
+      <c r="L23" s="363">
         <f>'Data Record'!Y36</f>
         <v>0</v>
       </c>
-      <c r="M23" s="371"/>
-      <c r="N23" s="372"/>
-      <c r="O23" s="376">
+      <c r="M23" s="364"/>
+      <c r="N23" s="365"/>
+      <c r="O23" s="395">
         <f>'Uncertainty Budget (Ext)'!P18</f>
         <v>7.0503498731150447E-3</v>
       </c>
-      <c r="P23" s="377"/>
-      <c r="Q23" s="377"/>
-      <c r="R23" s="378"/>
+      <c r="P23" s="396"/>
+      <c r="Q23" s="396"/>
+      <c r="R23" s="397"/>
       <c r="S23" s="118"/>
       <c r="T23" s="174"/>
       <c r="U23" s="128"/>
@@ -19838,31 +19826,31 @@
       <c r="C24" s="173"/>
       <c r="D24" s="118"/>
       <c r="E24" s="118"/>
-      <c r="F24" s="382">
+      <c r="F24" s="383">
         <f>'Data Record'!C37</f>
         <v>400</v>
       </c>
-      <c r="G24" s="383"/>
-      <c r="H24" s="384"/>
-      <c r="I24" s="370">
+      <c r="G24" s="384"/>
+      <c r="H24" s="385"/>
+      <c r="I24" s="363">
         <f>'Data Record'!R37</f>
         <v>400</v>
       </c>
-      <c r="J24" s="371"/>
-      <c r="K24" s="372"/>
-      <c r="L24" s="370">
+      <c r="J24" s="364"/>
+      <c r="K24" s="365"/>
+      <c r="L24" s="363">
         <f>'Data Record'!Y37</f>
         <v>0</v>
       </c>
-      <c r="M24" s="371"/>
-      <c r="N24" s="372"/>
-      <c r="O24" s="376">
+      <c r="M24" s="364"/>
+      <c r="N24" s="365"/>
+      <c r="O24" s="395">
         <f>'Uncertainty Budget (Ext)'!P19</f>
         <v>7.8954902739897456E-3</v>
       </c>
-      <c r="P24" s="377"/>
-      <c r="Q24" s="377"/>
-      <c r="R24" s="378"/>
+      <c r="P24" s="396"/>
+      <c r="Q24" s="396"/>
+      <c r="R24" s="397"/>
       <c r="S24" s="118"/>
       <c r="T24" s="174"/>
       <c r="U24" s="128"/>
@@ -19875,31 +19863,31 @@
       <c r="C25" s="173"/>
       <c r="D25" s="118"/>
       <c r="E25" s="118"/>
-      <c r="F25" s="382">
+      <c r="F25" s="383">
         <f>'Data Record'!C38</f>
         <v>500</v>
       </c>
-      <c r="G25" s="383"/>
-      <c r="H25" s="384"/>
-      <c r="I25" s="370">
+      <c r="G25" s="384"/>
+      <c r="H25" s="385"/>
+      <c r="I25" s="363">
         <f>'Data Record'!R38</f>
         <v>500</v>
       </c>
-      <c r="J25" s="371"/>
-      <c r="K25" s="372"/>
-      <c r="L25" s="370">
+      <c r="J25" s="364"/>
+      <c r="K25" s="365"/>
+      <c r="L25" s="363">
         <f>'Data Record'!Y38</f>
         <v>0</v>
       </c>
-      <c r="M25" s="371"/>
-      <c r="N25" s="372"/>
-      <c r="O25" s="376">
+      <c r="M25" s="364"/>
+      <c r="N25" s="365"/>
+      <c r="O25" s="395">
         <f>'Uncertainty Budget (Ext)'!P20</f>
         <v>8.8671679056318009E-3</v>
       </c>
-      <c r="P25" s="377"/>
-      <c r="Q25" s="377"/>
-      <c r="R25" s="378"/>
+      <c r="P25" s="396"/>
+      <c r="Q25" s="396"/>
+      <c r="R25" s="397"/>
       <c r="S25" s="118"/>
       <c r="T25" s="174"/>
       <c r="U25" s="128"/>
@@ -19912,31 +19900,31 @@
       <c r="C26" s="173"/>
       <c r="D26" s="118"/>
       <c r="E26" s="118"/>
-      <c r="F26" s="382">
+      <c r="F26" s="383">
         <f>'Data Record'!C39</f>
         <v>600</v>
       </c>
-      <c r="G26" s="383"/>
-      <c r="H26" s="384"/>
-      <c r="I26" s="370">
+      <c r="G26" s="384"/>
+      <c r="H26" s="385"/>
+      <c r="I26" s="363">
         <f>'Data Record'!R39</f>
         <v>600</v>
       </c>
-      <c r="J26" s="371"/>
-      <c r="K26" s="372"/>
-      <c r="L26" s="370">
+      <c r="J26" s="364"/>
+      <c r="K26" s="365"/>
+      <c r="L26" s="363">
         <f>'Data Record'!Y39</f>
         <v>0</v>
       </c>
-      <c r="M26" s="371"/>
-      <c r="N26" s="372"/>
-      <c r="O26" s="376">
+      <c r="M26" s="364"/>
+      <c r="N26" s="365"/>
+      <c r="O26" s="395">
         <f>'Uncertainty Budget (Ext)'!P21</f>
         <v>9.9147230588319171E-3</v>
       </c>
-      <c r="P26" s="377"/>
-      <c r="Q26" s="377"/>
-      <c r="R26" s="378"/>
+      <c r="P26" s="396"/>
+      <c r="Q26" s="396"/>
+      <c r="R26" s="397"/>
       <c r="S26" s="118"/>
       <c r="T26" s="174"/>
       <c r="U26" s="128"/>
@@ -19949,31 +19937,31 @@
       <c r="C27" s="173"/>
       <c r="D27" s="118"/>
       <c r="E27" s="118"/>
-      <c r="F27" s="382">
+      <c r="F27" s="383">
         <f>'Data Record'!C40</f>
         <v>700</v>
       </c>
-      <c r="G27" s="383"/>
-      <c r="H27" s="384"/>
-      <c r="I27" s="370">
+      <c r="G27" s="384"/>
+      <c r="H27" s="385"/>
+      <c r="I27" s="363">
         <f>'Data Record'!R40</f>
         <v>700</v>
       </c>
-      <c r="J27" s="371"/>
-      <c r="K27" s="372"/>
-      <c r="L27" s="370">
+      <c r="J27" s="364"/>
+      <c r="K27" s="365"/>
+      <c r="L27" s="363">
         <f>'Data Record'!Y40</f>
         <v>0</v>
       </c>
-      <c r="M27" s="371"/>
-      <c r="N27" s="372"/>
-      <c r="O27" s="376">
+      <c r="M27" s="364"/>
+      <c r="N27" s="365"/>
+      <c r="O27" s="395">
         <f>'Uncertainty Budget (Ext)'!P22</f>
         <v>1.106612699487344E-2</v>
       </c>
-      <c r="P27" s="377"/>
-      <c r="Q27" s="377"/>
-      <c r="R27" s="378"/>
+      <c r="P27" s="396"/>
+      <c r="Q27" s="396"/>
+      <c r="R27" s="397"/>
       <c r="S27" s="118"/>
       <c r="T27" s="174"/>
       <c r="U27" s="128"/>
@@ -19986,31 +19974,31 @@
       <c r="C28" s="173"/>
       <c r="D28" s="118"/>
       <c r="E28" s="118"/>
-      <c r="F28" s="382">
+      <c r="F28" s="383">
         <f>'Data Record'!C41</f>
         <v>800</v>
       </c>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="370">
+      <c r="G28" s="384"/>
+      <c r="H28" s="385"/>
+      <c r="I28" s="363">
         <f>'Data Record'!R41</f>
         <v>800</v>
       </c>
-      <c r="J28" s="371"/>
-      <c r="K28" s="372"/>
-      <c r="L28" s="370">
+      <c r="J28" s="364"/>
+      <c r="K28" s="365"/>
+      <c r="L28" s="363">
         <f>'Data Record'!Y41</f>
         <v>0</v>
       </c>
-      <c r="M28" s="371"/>
-      <c r="N28" s="372"/>
-      <c r="O28" s="376">
+      <c r="M28" s="364"/>
+      <c r="N28" s="365"/>
+      <c r="O28" s="395">
         <f>'Uncertainty Budget (Ext)'!P23</f>
         <v>1.2225496581598093E-2</v>
       </c>
-      <c r="P28" s="377"/>
-      <c r="Q28" s="377"/>
-      <c r="R28" s="378"/>
+      <c r="P28" s="396"/>
+      <c r="Q28" s="396"/>
+      <c r="R28" s="397"/>
       <c r="S28" s="118"/>
       <c r="T28" s="174"/>
       <c r="U28" s="128"/>
@@ -20023,31 +20011,31 @@
       <c r="C29" s="173"/>
       <c r="D29" s="118"/>
       <c r="E29" s="118"/>
-      <c r="F29" s="382">
+      <c r="F29" s="383">
         <f>'Data Record'!C42</f>
         <v>900</v>
       </c>
-      <c r="G29" s="383"/>
-      <c r="H29" s="384"/>
-      <c r="I29" s="370">
+      <c r="G29" s="384"/>
+      <c r="H29" s="385"/>
+      <c r="I29" s="363">
         <f>'Data Record'!R42</f>
         <v>900</v>
       </c>
-      <c r="J29" s="371"/>
-      <c r="K29" s="372"/>
-      <c r="L29" s="370">
+      <c r="J29" s="364"/>
+      <c r="K29" s="365"/>
+      <c r="L29" s="363">
         <f>'Data Record'!Y42</f>
         <v>0</v>
       </c>
-      <c r="M29" s="371"/>
-      <c r="N29" s="372"/>
-      <c r="O29" s="376">
+      <c r="M29" s="364"/>
+      <c r="N29" s="365"/>
+      <c r="O29" s="395">
         <f>'Uncertainty Budget (Ext)'!P24</f>
         <v>1.3421007165385664E-2</v>
       </c>
-      <c r="P29" s="377"/>
-      <c r="Q29" s="377"/>
-      <c r="R29" s="378"/>
+      <c r="P29" s="396"/>
+      <c r="Q29" s="396"/>
+      <c r="R29" s="397"/>
       <c r="S29" s="118"/>
       <c r="T29" s="174"/>
       <c r="U29" s="128"/>
@@ -20060,31 +20048,31 @@
       <c r="C30" s="173"/>
       <c r="D30" s="176"/>
       <c r="E30" s="176"/>
-      <c r="F30" s="382">
+      <c r="F30" s="383">
         <f>'Data Record'!C43</f>
         <v>1000</v>
       </c>
-      <c r="G30" s="383"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="370">
+      <c r="G30" s="384"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="363">
         <f>'Data Record'!R43</f>
         <v>1000</v>
       </c>
-      <c r="J30" s="371"/>
-      <c r="K30" s="372"/>
-      <c r="L30" s="370">
+      <c r="J30" s="364"/>
+      <c r="K30" s="365"/>
+      <c r="L30" s="363">
         <f>'Data Record'!Y43</f>
         <v>0</v>
       </c>
-      <c r="M30" s="371"/>
-      <c r="N30" s="372"/>
-      <c r="O30" s="376">
+      <c r="M30" s="364"/>
+      <c r="N30" s="365"/>
+      <c r="O30" s="395">
         <f>'Uncertainty Budget (Ext)'!P25</f>
         <v>1.4632797636360132E-2</v>
       </c>
-      <c r="P30" s="377"/>
-      <c r="Q30" s="377"/>
-      <c r="R30" s="378"/>
+      <c r="P30" s="396"/>
+      <c r="Q30" s="396"/>
+      <c r="R30" s="397"/>
       <c r="S30" s="118"/>
       <c r="T30" s="174"/>
       <c r="U30" s="128"/>
@@ -20097,31 +20085,31 @@
       <c r="C31" s="173"/>
       <c r="D31" s="176"/>
       <c r="E31" s="176"/>
-      <c r="F31" s="402">
+      <c r="F31" s="380">
         <f>'Data Record'!C44</f>
         <v>1500</v>
       </c>
-      <c r="G31" s="403"/>
-      <c r="H31" s="404"/>
-      <c r="I31" s="405">
+      <c r="G31" s="381"/>
+      <c r="H31" s="382"/>
+      <c r="I31" s="386">
         <f>'Data Record'!R44</f>
         <v>1500.01</v>
       </c>
-      <c r="J31" s="406"/>
-      <c r="K31" s="407"/>
-      <c r="L31" s="405">
+      <c r="J31" s="387"/>
+      <c r="K31" s="388"/>
+      <c r="L31" s="386">
         <f>'Data Record'!Y44</f>
         <v>9.9999999999909051E-3</v>
       </c>
-      <c r="M31" s="406"/>
-      <c r="N31" s="407"/>
-      <c r="O31" s="408">
+      <c r="M31" s="387"/>
+      <c r="N31" s="388"/>
+      <c r="O31" s="389">
         <f>'Uncertainty Budget (Ext)'!P26</f>
         <v>2.101047913145565E-2</v>
       </c>
-      <c r="P31" s="409"/>
-      <c r="Q31" s="409"/>
-      <c r="R31" s="410"/>
+      <c r="P31" s="390"/>
+      <c r="Q31" s="390"/>
+      <c r="R31" s="391"/>
       <c r="S31" s="118"/>
       <c r="T31" s="174"/>
       <c r="U31" s="128"/>
@@ -20305,30 +20293,30 @@
       <c r="W38" s="163"/>
     </row>
     <row r="39" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="388" t="s">
+      <c r="A39" s="366" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="388"/>
-      <c r="C39" s="388"/>
-      <c r="D39" s="388"/>
-      <c r="E39" s="388"/>
-      <c r="F39" s="388"/>
-      <c r="G39" s="388"/>
-      <c r="H39" s="388"/>
-      <c r="I39" s="388"/>
-      <c r="J39" s="388"/>
-      <c r="K39" s="388"/>
-      <c r="L39" s="388"/>
-      <c r="M39" s="388"/>
-      <c r="N39" s="388"/>
-      <c r="O39" s="388"/>
-      <c r="P39" s="388"/>
-      <c r="Q39" s="388"/>
-      <c r="R39" s="388"/>
-      <c r="S39" s="388"/>
-      <c r="T39" s="388"/>
-      <c r="U39" s="388"/>
-      <c r="V39" s="388"/>
+      <c r="B39" s="366"/>
+      <c r="C39" s="366"/>
+      <c r="D39" s="366"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="366"/>
+      <c r="G39" s="366"/>
+      <c r="H39" s="366"/>
+      <c r="I39" s="366"/>
+      <c r="J39" s="366"/>
+      <c r="K39" s="366"/>
+      <c r="L39" s="366"/>
+      <c r="M39" s="366"/>
+      <c r="N39" s="366"/>
+      <c r="O39" s="366"/>
+      <c r="P39" s="366"/>
+      <c r="Q39" s="366"/>
+      <c r="R39" s="366"/>
+      <c r="S39" s="366"/>
+      <c r="T39" s="366"/>
+      <c r="U39" s="366"/>
+      <c r="V39" s="366"/>
       <c r="W39" s="163"/>
     </row>
     <row r="40" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -21766,33 +21754,45 @@
     <row r="248" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A39:V39"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O10:R11"/>
-    <mergeCell ref="L10:N11"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I10:K11"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A3:Z3"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F13:H13"/>
@@ -21809,27 +21809,21 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L19:N19"/>
@@ -21838,24 +21832,18 @@
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A3:Z3"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O10:R11"/>
+    <mergeCell ref="L10:N11"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A39:V39"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:R31"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -21881,7 +21869,7 @@
   </sheetPr>
   <dimension ref="A1:IS121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -21902,54 +21890,54 @@
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:253" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="421" t="s">
+      <c r="B2" s="409" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
-      <c r="N2" s="421"/>
-      <c r="O2" s="421"/>
-      <c r="P2" s="421"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="409"/>
+      <c r="J2" s="409"/>
+      <c r="K2" s="409"/>
+      <c r="L2" s="409"/>
+      <c r="M2" s="409"/>
+      <c r="N2" s="409"/>
+      <c r="O2" s="409"/>
+      <c r="P2" s="409"/>
     </row>
     <row r="3" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
+      <c r="B3" s="410"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:253" x14ac:dyDescent="0.25">
-      <c r="B4" s="423" t="s">
+      <c r="B4" s="411" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="424"/>
-      <c r="D4" s="423" t="s">
+      <c r="C4" s="412"/>
+      <c r="D4" s="411" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="424"/>
-      <c r="F4" s="425" t="s">
+      <c r="E4" s="412"/>
+      <c r="F4" s="413" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="426"/>
-      <c r="H4" s="423" t="s">
+      <c r="G4" s="414"/>
+      <c r="H4" s="411" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="424"/>
-      <c r="J4" s="423" t="s">
+      <c r="I4" s="412"/>
+      <c r="J4" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="424"/>
+      <c r="K4" s="412"/>
       <c r="L4" s="415" t="s">
         <v>9</v>
       </c>
@@ -22002,10 +21990,10 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="413" t="s">
+      <c r="B6" s="421" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="414"/>
+      <c r="C6" s="422"/>
       <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
@@ -22052,11 +22040,11 @@
     </row>
     <row r="7" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="411">
+      <c r="B7" s="407">
         <f>'Data Record'!C25</f>
         <v>0</v>
       </c>
-      <c r="C7" s="412"/>
+      <c r="C7" s="408"/>
       <c r="D7" s="49">
         <f>'Cert of STD'!K24</f>
         <v>5.9999999999999995E-5</v>
@@ -22116,11 +22104,11 @@
     </row>
     <row r="8" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="411">
+      <c r="B8" s="407">
         <f>'Data Record'!C26</f>
         <v>1</v>
       </c>
-      <c r="C8" s="412"/>
+      <c r="C8" s="408"/>
       <c r="D8" s="49">
         <f>'Cert of STD'!K24</f>
         <v>5.9999999999999995E-5</v>
@@ -22180,11 +22168,11 @@
     </row>
     <row r="9" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="411">
+      <c r="B9" s="407">
         <f>'Data Record'!C27</f>
         <v>1.5</v>
       </c>
-      <c r="C9" s="412"/>
+      <c r="C9" s="408"/>
       <c r="D9" s="49">
         <f>'Cert of STD'!K19</f>
         <v>5.9999999999999995E-5</v>
@@ -22244,11 +22232,11 @@
     </row>
     <row r="10" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="411">
+      <c r="B10" s="407">
         <f>'Data Record'!C28</f>
         <v>5</v>
       </c>
-      <c r="C10" s="412"/>
+      <c r="C10" s="408"/>
       <c r="D10" s="49">
         <f>'Cert of STD'!K28</f>
         <v>5.9999999999999995E-5</v>
@@ -22308,11 +22296,11 @@
     </row>
     <row r="11" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="411">
+      <c r="B11" s="407">
         <f>'Data Record'!C29</f>
         <v>10</v>
       </c>
-      <c r="C11" s="412"/>
+      <c r="C11" s="408"/>
       <c r="D11" s="49">
         <f>'Cert of STD'!K33</f>
         <v>5.9999999999999995E-5</v>
@@ -22605,11 +22593,11 @@
     </row>
     <row r="12" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="411">
+      <c r="B12" s="407">
         <f>'Data Record'!C30</f>
         <v>20</v>
       </c>
-      <c r="C12" s="412"/>
+      <c r="C12" s="408"/>
       <c r="D12" s="49">
         <f>'Cert of STD'!K43</f>
         <v>7.0000000000000007E-5</v>
@@ -22902,11 +22890,11 @@
     </row>
     <row r="13" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="411">
+      <c r="B13" s="407">
         <f>'Data Record'!C31</f>
         <v>50</v>
       </c>
-      <c r="C13" s="412"/>
+      <c r="C13" s="408"/>
       <c r="D13" s="49">
         <f>'Cert of STD'!K49</f>
         <v>8.9999999999999992E-5</v>
@@ -23199,11 +23187,11 @@
     </row>
     <row r="14" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="411">
+      <c r="B14" s="407">
         <f>'Data Record'!C32</f>
         <v>100</v>
       </c>
-      <c r="C14" s="412"/>
+      <c r="C14" s="408"/>
       <c r="D14" s="49">
         <f>'Cert of STD'!K51</f>
         <v>1.1999999999999999E-4</v>
@@ -23493,11 +23481,11 @@
     </row>
     <row r="15" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="411">
+      <c r="B15" s="407">
         <f>'Data Record'!C33</f>
         <v>150</v>
       </c>
-      <c r="C15" s="412"/>
+      <c r="C15" s="408"/>
       <c r="D15" s="49">
         <f>'Cert of STD'!W6</f>
         <v>4.6999999999999999E-4</v>
@@ -23787,11 +23775,11 @@
     </row>
     <row r="16" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="411">
+      <c r="B16" s="407">
         <f>'Data Record'!C34</f>
         <v>200</v>
       </c>
-      <c r="C16" s="412"/>
+      <c r="C16" s="408"/>
       <c r="D16" s="49">
         <f>'Cert of STD'!W8</f>
         <v>5.5000000000000003E-4</v>
@@ -24081,11 +24069,11 @@
     </row>
     <row r="17" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="411">
+      <c r="B17" s="407">
         <f>'Data Record'!C35</f>
         <v>250</v>
       </c>
-      <c r="C17" s="412"/>
+      <c r="C17" s="408"/>
       <c r="D17" s="49">
         <f>'Cert of STD'!W9</f>
         <v>6.3000000000000003E-4</v>
@@ -24375,11 +24363,11 @@
     </row>
     <row r="18" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="411">
+      <c r="B18" s="407">
         <f>'Data Record'!C36</f>
         <v>300</v>
       </c>
-      <c r="C18" s="412"/>
+      <c r="C18" s="408"/>
       <c r="D18" s="49">
         <f>'Cert of STD'!W10</f>
         <v>7.0999999999999991E-4</v>
@@ -24669,11 +24657,11 @@
     </row>
     <row r="19" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="411">
+      <c r="B19" s="407">
         <f>'Data Record'!C37</f>
         <v>400</v>
       </c>
-      <c r="C19" s="412"/>
+      <c r="C19" s="408"/>
       <c r="D19" s="49">
         <f>'Cert of STD'!W11</f>
         <v>8.9000000000000006E-4</v>
@@ -24963,11 +24951,11 @@
     </row>
     <row r="20" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="411">
+      <c r="B20" s="407">
         <f>'Data Record'!C38</f>
         <v>500</v>
       </c>
-      <c r="C20" s="412"/>
+      <c r="C20" s="408"/>
       <c r="D20" s="49">
         <f>'Cert of STD'!W12</f>
         <v>1.1000000000000001E-3</v>
@@ -25256,11 +25244,11 @@
       <c r="IS20" s="20"/>
     </row>
     <row r="21" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="411">
+      <c r="B21" s="407">
         <f>'Data Record'!C39</f>
         <v>600</v>
       </c>
-      <c r="C21" s="412"/>
+      <c r="C21" s="408"/>
       <c r="D21" s="49">
         <f>'Cert of STD'!W12+'Cert of STD'!K51</f>
         <v>1.2200000000000002E-3</v>
@@ -25549,11 +25537,11 @@
       <c r="IS21" s="20"/>
     </row>
     <row r="22" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="411">
+      <c r="B22" s="407">
         <f>'Data Record'!C40</f>
         <v>700</v>
       </c>
-      <c r="C22" s="412"/>
+      <c r="C22" s="408"/>
       <c r="D22" s="49">
         <f>'Cert of STD'!W12+'Cert of STD'!W8</f>
         <v>1.65E-3</v>
@@ -25842,11 +25830,11 @@
       <c r="IS22" s="20"/>
     </row>
     <row r="23" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="411">
+      <c r="B23" s="407">
         <f>'Data Record'!C41</f>
         <v>800</v>
       </c>
-      <c r="C23" s="412"/>
+      <c r="C23" s="408"/>
       <c r="D23" s="49">
         <f>'Cert of STD'!W12+'Cert of STD'!W10</f>
         <v>1.81E-3</v>
@@ -26135,11 +26123,11 @@
       <c r="IS23" s="20"/>
     </row>
     <row r="24" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="411">
+      <c r="B24" s="407">
         <f>'Data Record'!C42</f>
         <v>900</v>
       </c>
-      <c r="C24" s="412"/>
+      <c r="C24" s="408"/>
       <c r="D24" s="49">
         <f>'Cert of STD'!W12+'Cert of STD'!W11</f>
         <v>1.99E-3</v>
@@ -26428,11 +26416,11 @@
       <c r="IS24" s="20"/>
     </row>
     <row r="25" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="411">
+      <c r="B25" s="407">
         <f>'Data Record'!C43</f>
         <v>1000</v>
       </c>
-      <c r="C25" s="412"/>
+      <c r="C25" s="408"/>
       <c r="D25" s="49">
         <f>'Cert of STD'!W12+'Cert of STD'!W11+'Cert of STD'!K51</f>
         <v>2.1099999999999999E-3</v>
@@ -26721,11 +26709,11 @@
       <c r="IS25" s="20"/>
     </row>
     <row r="26" spans="1:253" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="411">
+      <c r="B26" s="407">
         <f>'Data Record'!C44</f>
         <v>1500</v>
       </c>
-      <c r="C26" s="412"/>
+      <c r="C26" s="408"/>
       <c r="D26" s="49">
         <f>'Cert of STD'!W12+'Cert of STD'!W11+'Cert of STD'!W10+'Cert of STD'!W8+'Cert of STD'!K51</f>
         <v>3.3700000000000002E-3</v>
@@ -51240,6 +51228,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:E3"/>
@@ -51256,27 +51265,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -51341,64 +51329,64 @@
       <c r="X2" s="8"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="427" t="s">
+      <c r="B3" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="429"/>
-      <c r="H3" s="427" t="s">
+      <c r="C3" s="424"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="424"/>
+      <c r="F3" s="425"/>
+      <c r="H3" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="428"/>
-      <c r="J3" s="428"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="429"/>
-      <c r="N3" s="427" t="s">
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="424"/>
+      <c r="L3" s="425"/>
+      <c r="N3" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
-      <c r="Q3" s="428"/>
-      <c r="R3" s="429"/>
-      <c r="T3" s="427" t="s">
+      <c r="O3" s="424"/>
+      <c r="P3" s="424"/>
+      <c r="Q3" s="424"/>
+      <c r="R3" s="425"/>
+      <c r="T3" s="423" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="428"/>
-      <c r="V3" s="428"/>
-      <c r="W3" s="428"/>
-      <c r="X3" s="429"/>
+      <c r="U3" s="424"/>
+      <c r="V3" s="424"/>
+      <c r="W3" s="424"/>
+      <c r="X3" s="425"/>
     </row>
     <row r="4" spans="2:24" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="430" t="s">
+      <c r="B4" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="431"/>
-      <c r="D4" s="431"/>
-      <c r="E4" s="431"/>
-      <c r="F4" s="432"/>
-      <c r="H4" s="430" t="s">
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="427"/>
+      <c r="F4" s="428"/>
+      <c r="H4" s="426" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="431"/>
-      <c r="J4" s="431"/>
-      <c r="K4" s="431"/>
-      <c r="L4" s="432"/>
-      <c r="N4" s="430" t="s">
+      <c r="I4" s="427"/>
+      <c r="J4" s="427"/>
+      <c r="K4" s="427"/>
+      <c r="L4" s="428"/>
+      <c r="N4" s="426" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="431"/>
-      <c r="P4" s="431"/>
-      <c r="Q4" s="431"/>
-      <c r="R4" s="432"/>
-      <c r="T4" s="430" t="s">
+      <c r="O4" s="427"/>
+      <c r="P4" s="427"/>
+      <c r="Q4" s="427"/>
+      <c r="R4" s="428"/>
+      <c r="T4" s="426" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="431"/>
-      <c r="V4" s="431"/>
-      <c r="W4" s="431"/>
-      <c r="X4" s="432"/>
+      <c r="U4" s="427"/>
+      <c r="V4" s="427"/>
+      <c r="W4" s="427"/>
+      <c r="X4" s="428"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
